--- a/Assignment1/result.xlsx
+++ b/Assignment1/result.xlsx
@@ -221,54 +221,106 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=64,Thread=1, Min=0, max=1000, Estim seq=0.07</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
+            <text:p>N=64,Thread=1, Min=0, max=1000, Estim seq=1.038053</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1.03834</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1.03909</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1.03849</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=64,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.56312</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.533443</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=64,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.31801</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.284811</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=64,Thread=8, Min=0, max=1000</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.190534</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.159875</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=64,Thread=16, Min=0, max=1000</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.128758</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.104784</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=64,Thread=32, Min=0, max=1000</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=64,Thread=64, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.107554</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.0846582</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=64,Thread=40, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.104546</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>0.0840638</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000, Estim seq=0.074382</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
+            <text:p>N=256,Thread=1, Min=0, max=1000, Estim seq=16.486716</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>16.4907</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>16.4922</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>16.4924</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -422,11 +474,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-04-09T17:52:10.097789529</meta:creation-date>
-    <dc:date>2024-04-11T12:46:27.240594430</dc:date>
-    <meta:editing-duration>PT1H1M44S</meta:editing-duration>
-    <meta:editing-cycles>11</meta:editing-cycles>
+    <dc:date>2024-04-11T18:49:15.991208518</dc:date>
+    <meta:editing-duration>PT1H47M9S</meta:editing-duration>
+    <meta:editing-cycles>14</meta:editing-cycles>
     <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="72" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="90" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -444,8 +496,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">16</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">29</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -523,7 +575,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">1gH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleHREYXRhClBhZ2VTaXplOkE0AER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">1gH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleHREYXRhCkR1cGxleDpOb25lAFBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
@@ -707,7 +759,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2024-04-11">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="12:30:53.025387887">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="18:03:48.753167352">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Assignment1/result.xlsx
+++ b/Assignment1/result.xlsx
@@ -324,140 +324,166 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=256,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
+            <text:p>N=256,Thread=2, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>8.84593</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>8.54937</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=256,Thread=4, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5.23857</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4.77091</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=256,Thread=8, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3.54753</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2.85949</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=256,Thread=16, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2.67643</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1.99214</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=256,Thread=32, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2.21867</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1.69124</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=256,Thread=40, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2.23406</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1.67213</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000, Estim seq=0.074382</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=512,Thread=1, Min=0, max=1000</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048527">
+            <text:p>N=512,Thread=1, Min=0, max=1000, Estim seq=65.540021</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>65.5842</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>65.5841</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>65.5833</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=2, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>34.2837</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>33.4536</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=4, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>17.5524</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>16.5471</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=8, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>9.32986</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>8.40291</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=16, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>8.36034</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6.35851</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=32, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>7.24261</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5.25371</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=40, Min=0, max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>7.19698</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5.20369</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048536">
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -474,11 +500,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-04-09T17:52:10.097789529</meta:creation-date>
-    <dc:date>2024-04-11T18:49:15.991208518</dc:date>
-    <meta:editing-duration>PT1H47M9S</meta:editing-duration>
-    <meta:editing-cycles>14</meta:editing-cycles>
+    <dc:date>2024-04-12T10:42:06.784172451</dc:date>
+    <meta:editing-duration>PT3H26M40S</meta:editing-duration>
+    <meta:editing-cycles>17</meta:editing-cycles>
     <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="90" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="108" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -490,19 +516,19 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">16686</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">21675</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">17611</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">29</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">34</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">3</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -575,7 +601,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">1gH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleHREYXRhCkR1cGxleDpOb25lAFBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">1gH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleHREYXRhClBhZ2VTaXplOkE0AER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
@@ -757,9 +783,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-04-11">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-04-12">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="18:03:48.753167352">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="09:02:35.425497321">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Assignment1/result.xlsx
+++ b/Assignment1/result.xlsx
@@ -28,7 +28,13 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="2.258cm"/>
     </style:style>
     <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.15cm"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.424cm"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="4.874cm"/>
+    </style:style>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="4.302cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -36,9 +42,14 @@
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N0"/>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
+      <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N0">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
+      <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -47,7 +58,9 @@
       <table:table table:name="Sheet1" table:style-name="ta1">
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co2" table:number-columns-repeated="2" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce1"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -59,19 +72,31 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Dynamic</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Speedup Static</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Speedup Dynamic</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=4,Thread=1, Min=0, max=1000, Estim seq=0.00408800</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00408927</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00447201</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0041311</text:p>
+          <table:table-cell office:value-type="float" office:value="0.00408927" calcext:value-type="float">
+            <text:p>0,00408927</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.00447201" calcext:value-type="float">
+            <text:p>0,00447201</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0041311" calcext:value-type="float">
+            <text:p>0,0041311</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B2]/[.C2]" office:value-type="float" office:value="0.914414323760457" calcext:value-type="float">
+            <text:p>0,914414323760457</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B2]/[.D2]" office:value-type="float" office:value="0.989874367601849" calcext:value-type="float">
+            <text:p>0,989874367601849</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -79,11 +104,17 @@
             <text:p>N=4,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00356625</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00313312</text:p>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.00356625" calcext:value-type="float">
+            <text:p>0,00356625</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="0.00313312" calcext:value-type="float">
+            <text:p>0,00313312</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B2]/[.C3]" office:value-type="float" office:value="1.14665825446898" calcext:value-type="float">
+            <text:p>1,14665825446898</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B2]/[.D3]" office:value-type="float" office:value="1.30517503319375" calcext:value-type="float">
+            <text:p>1,30517503319375</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -91,28 +122,40 @@
             <text:p>N=4,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00331601</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00295609</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.00331601" calcext:value-type="float">
+            <text:p>0,00331601</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="0.00295609" calcext:value-type="float">
+            <text:p>0,00295609</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B2]/[.C4]" office:value-type="float" office:value="1.23318988784714" calcext:value-type="float">
+            <text:p>1,23318988784714</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B2]/[.D4]" office:value-type="float" office:value="1.38333744913044" calcext:value-type="float">
+            <text:p>1,38333744913044</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=8,Thread=1, Min=0, max=1000, Estim seq=0.0206900</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0206932</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0210875</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0207347</text:p>
+          <table:table-cell office:value-type="float" office:value="0.0206932" calcext:value-type="float">
+            <text:p>0,0206932</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0210875" calcext:value-type="float">
+            <text:p>0,0210875</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0207347" calcext:value-type="float">
+            <text:p>0,0207347</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B6]/[.C6]" office:value-type="float" office:value="0.98130171902786" calcext:value-type="float">
+            <text:p>0,98130171902786</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B6]/[.D6]" office:value-type="float" office:value="0.997998524213034" calcext:value-type="float">
+            <text:p>0,997998524213034</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -120,11 +163,17 @@
             <text:p>N=8,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0130884</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0124747</text:p>
+          <table:table-cell office:value-type="float" office:value="0.0130884" calcext:value-type="float">
+            <text:p>0,0130884</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0124747" calcext:value-type="float">
+            <text:p>0,0124747</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B6]/[.C7]" office:value-type="float" office:value="1.58103358699306" calcext:value-type="float">
+            <text:p>1,58103358699306</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B6]/[.D7]" office:value-type="float" office:value="1.65881343839932" calcext:value-type="float">
+            <text:p>1,65881343839932</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -132,11 +181,17 @@
             <text:p>N=8,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00955151</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00836691</text:p>
+          <table:table-cell office:value-type="float" office:value="0.00955151" calcext:value-type="float">
+            <text:p>0,00955151</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.00836691" calcext:value-type="float">
+            <text:p>0,00836691</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B6]/[.C8]" office:value-type="float" office:value="2.16648467101013" calcext:value-type="float">
+            <text:p>2,16648467101013</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B6]/[.D8]" office:value-type="float" office:value="2.4732189063824" calcext:value-type="float">
+            <text:p>2,4732189063824</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -144,28 +199,40 @@
             <text:p>N=8,Thread=8, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00778859</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.00752128</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="float" office:value="0.00778859" calcext:value-type="float">
+            <text:p>0,00778859</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.00752128" calcext:value-type="float">
+            <text:p>0,00752128</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B6]/[.C9]" office:value-type="float" office:value="2.65686086955405" calcext:value-type="float">
+            <text:p>2,65686086955405</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B6]/[.D9]" office:value-type="float" office:value="2.75128701497617" calcext:value-type="float">
+            <text:p>2,75128701497617</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=16,Thread=1, Min=0, max=1000, Estim seq=0.074382</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0743907</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0747765</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0744376</text:p>
+          <table:table-cell office:value-type="float" office:value="0.0743907" calcext:value-type="float">
+            <text:p>0,0743907</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0747765" calcext:value-type="float">
+            <text:p>0,0747765</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0744376" calcext:value-type="float">
+            <text:p>0,0744376</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.C11]" office:value-type="float" office:value="0.994840625062687" calcext:value-type="float">
+            <text:p>0,994840625062687</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.D11]" office:value-type="float" office:value="0.999369942072286" calcext:value-type="float">
+            <text:p>0,999369942072286</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -173,11 +240,17 @@
             <text:p>N=16,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0413215</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0398512</text:p>
+          <table:table-cell office:value-type="float" office:value="0.0413215" calcext:value-type="float">
+            <text:p>0,0413215</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0398512" calcext:value-type="float">
+            <text:p>0,0398512</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.C12]" office:value-type="float" office:value="1.80029040572099" calcext:value-type="float">
+            <text:p>1,80029040572099</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.D12]" office:value-type="float" office:value="1.86671166740274" calcext:value-type="float">
+            <text:p>1,86671166740274</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -185,11 +258,17 @@
             <text:p>N=16,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0258323</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0230094</text:p>
+          <table:table-cell office:value-type="float" office:value="0.0258323" calcext:value-type="float">
+            <text:p>0,0258323</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0230094" calcext:value-type="float">
+            <text:p>0,0230094</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.C13]" office:value-type="float" office:value="2.87975519020761" calcext:value-type="float">
+            <text:p>2,87975519020761</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.D13]" office:value-type="float" office:value="3.23305692456127" calcext:value-type="float">
+            <text:p>3,23305692456127</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -197,11 +276,17 @@
             <text:p>N=16,Thread=8, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0175699</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0157808</text:p>
+          <table:table-cell office:value-type="float" office:value="0.0175699" calcext:value-type="float">
+            <text:p>0,0175699</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0157808" calcext:value-type="float">
+            <text:p>0,0157808</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.C14]" office:value-type="float" office:value="4.23398539547749" calcext:value-type="float">
+            <text:p>4,23398539547749</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.D14]" office:value-type="float" office:value="4.71400055763966" calcext:value-type="float">
+            <text:p>4,71400055763966</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -209,28 +294,40 @@
             <text:p>N=16,Thread=16, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0147448</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0145246</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="float" office:value="0.0147448" calcext:value-type="float">
+            <text:p>0,0147448</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0145246" calcext:value-type="float">
+            <text:p>0,0145246</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.C15]" office:value-type="float" office:value="5.04521594053497" calcext:value-type="float">
+            <text:p>5,04521594053497</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B11]/[.D15]" office:value-type="float" office:value="5.12170386792063" calcext:value-type="float">
+            <text:p>5,12170386792063</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=64,Thread=1, Min=0, max=1000, Estim seq=1.038053</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>1.03834</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>1.03909</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>1.03849</text:p>
+          <table:table-cell office:value-type="float" office:value="1.03834" calcext:value-type="float">
+            <text:p>1,03834</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.03909" calcext:value-type="float">
+            <text:p>1,03909</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.03849" calcext:value-type="float">
+            <text:p>1,03849</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.C17]" office:value-type="float" office:value="0.999278214591614" calcext:value-type="float">
+            <text:p>0,999278214591614</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.D17]" office:value-type="float" office:value="0.999855559514295" calcext:value-type="float">
+            <text:p>0,999855559514295</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -238,11 +335,17 @@
             <text:p>N=64,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.56312</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.533443</text:p>
+          <table:table-cell office:value-type="float" office:value="0.56312" calcext:value-type="float">
+            <text:p>0,56312</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.533443" calcext:value-type="float">
+            <text:p>0,533443</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.C18]" office:value-type="float" office:value="1.84390538428754" calcext:value-type="float">
+            <text:p>1,84390538428754</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.D18]" office:value-type="float" office:value="1.94648725355849" calcext:value-type="float">
+            <text:p>1,94648725355849</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -250,11 +353,17 @@
             <text:p>N=64,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.31801</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.284811</text:p>
+          <table:table-cell office:value-type="float" office:value="0.31801" calcext:value-type="float">
+            <text:p>0,31801</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.284811" calcext:value-type="float">
+            <text:p>0,284811</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.C19]" office:value-type="float" office:value="3.26511744913682" calcext:value-type="float">
+            <text:p>3,26511744913682</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.D19]" office:value-type="float" office:value="3.64571593091559" calcext:value-type="float">
+            <text:p>3,64571593091559</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -262,11 +371,17 @@
             <text:p>N=64,Thread=8, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.190534</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.159875</text:p>
+          <table:table-cell office:value-type="float" office:value="0.190534" calcext:value-type="float">
+            <text:p>0,190534</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.159875" calcext:value-type="float">
+            <text:p>0,159875</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.C20]" office:value-type="float" office:value="5.44963103698028" calcext:value-type="float">
+            <text:p>5,44963103698028</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.D20]" office:value-type="float" office:value="6.49469898358092" calcext:value-type="float">
+            <text:p>6,49469898358092</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -274,11 +389,17 @@
             <text:p>N=64,Thread=16, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.128758</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.104784</text:p>
+          <table:table-cell office:value-type="float" office:value="0.128758" calcext:value-type="float">
+            <text:p>0,128758</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.104784" calcext:value-type="float">
+            <text:p>0,104784</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.C21]" office:value-type="float" office:value="8.06427561782569" calcext:value-type="float">
+            <text:p>8,06427561782569</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.D21]" office:value-type="float" office:value="9.9093373034051" calcext:value-type="float">
+            <text:p>9,9093373034051</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -286,11 +407,17 @@
             <text:p>N=64,Thread=32, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.107554</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0846582</text:p>
+          <table:table-cell office:value-type="float" office:value="0.107554" calcext:value-type="float">
+            <text:p>0,107554</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0846582" calcext:value-type="float">
+            <text:p>0,0846582</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.C22]" office:value-type="float" office:value="9.65412722911282" calcext:value-type="float">
+            <text:p>9,65412722911282</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.D22]" office:value-type="float" office:value="12.2650847761942" calcext:value-type="float">
+            <text:p>12,2650847761942</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -298,28 +425,40 @@
             <text:p>N=64,Thread=40, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.104546</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.0840638</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="float" office:value="0.104546" calcext:value-type="float">
+            <text:p>0,104546</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0840638" calcext:value-type="float">
+            <text:p>0,0840638</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.C23]" office:value-type="float" office:value="9.93189600749909" calcext:value-type="float">
+            <text:p>9,93189600749909</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B17]/[.D23]" office:value-type="float" office:value="12.3518089831771" calcext:value-type="float">
+            <text:p>12,3518089831771</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=256,Thread=1, Min=0, max=1000, Estim seq=16.486716</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>16.4907</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>16.4922</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>16.4924</text:p>
+          <table:table-cell office:value-type="float" office:value="16.4907" calcext:value-type="float">
+            <text:p>16,4907</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="16.4922" calcext:value-type="float">
+            <text:p>16,4922</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="16.4924" calcext:value-type="float">
+            <text:p>16,4924</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C25]" office:value-type="float" office:value="0.999909047913559" calcext:value-type="float">
+            <text:p>0,999909047913559</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D25]" office:value-type="float" office:value="0.999896922218719" calcext:value-type="float">
+            <text:p>0,999896922218719</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -327,11 +466,17 @@
             <text:p>N=256,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>8.84593</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>8.54937</text:p>
+          <table:table-cell office:value-type="float" office:value="8.84593" calcext:value-type="float">
+            <text:p>8,84593</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8.54937" calcext:value-type="float">
+            <text:p>8,54937</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C26]" office:value-type="float" office:value="1.86421325965727" calcext:value-type="float">
+            <text:p>1,86421325965727</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D26]" office:value-type="float" office:value="1.92887897002937" calcext:value-type="float">
+            <text:p>1,92887897002937</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -339,11 +484,17 @@
             <text:p>N=256,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5.23857</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4.77091</text:p>
+          <table:table-cell office:value-type="float" office:value="5.23857" calcext:value-type="float">
+            <text:p>5,23857</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4.77091" calcext:value-type="float">
+            <text:p>4,77091</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C27]" office:value-type="float" office:value="3.14793922769" calcext:value-type="float">
+            <text:p>3,14793922769</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D27]" office:value-type="float" office:value="3.45651039319543" calcext:value-type="float">
+            <text:p>3,45651039319543</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -351,11 +502,17 @@
             <text:p>N=256,Thread=8, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3.54753</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2.85949</text:p>
+          <table:table-cell office:value-type="float" office:value="3.54753" calcext:value-type="float">
+            <text:p>3,54753</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2.85949" calcext:value-type="float">
+            <text:p>2,85949</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C28]" office:value-type="float" office:value="4.64850191541721" calcext:value-type="float">
+            <text:p>4,64850191541721</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D28]" office:value-type="float" office:value="5.76700740341809" calcext:value-type="float">
+            <text:p>5,76700740341809</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -363,11 +520,17 @@
             <text:p>N=256,Thread=16, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2.67643</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>1.99214</text:p>
+          <table:table-cell office:value-type="float" office:value="2.67643" calcext:value-type="float">
+            <text:p>2,67643</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.99214" calcext:value-type="float">
+            <text:p>1,99214</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C29]" office:value-type="float" office:value="6.16145387699286" calcext:value-type="float">
+            <text:p>6,16145387699286</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D29]" office:value-type="float" office:value="8.27788207656088" calcext:value-type="float">
+            <text:p>8,27788207656088</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -375,11 +538,17 @@
             <text:p>N=256,Thread=32, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2.21867</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>1.69124</text:p>
+          <table:table-cell office:value-type="float" office:value="2.21867" calcext:value-type="float">
+            <text:p>2,21867</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.69124" calcext:value-type="float">
+            <text:p>1,69124</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C30]" office:value-type="float" office:value="7.43269616481947" calcext:value-type="float">
+            <text:p>7,43269616481947</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D30]" office:value-type="float" office:value="9.75065632317116" calcext:value-type="float">
+            <text:p>9,75065632317116</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -387,28 +556,40 @@
             <text:p>N=256,Thread=40, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2.23406</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>1.67213</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="float" office:value="2.23406" calcext:value-type="float">
+            <text:p>2,23406</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.67213" calcext:value-type="float">
+            <text:p>1,67213</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C31]" office:value-type="float" office:value="7.38149378261998" calcext:value-type="float">
+            <text:p>7,38149378261998</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D31]" office:value-type="float" office:value="9.86209206222004" calcext:value-type="float">
+            <text:p>9,86209206222004</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=512,Thread=1, Min=0, max=1000, Estim seq=65.540021</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>65.5842</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>65.5841</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>65.5833</text:p>
+          <table:table-cell office:value-type="float" office:value="65.5842" calcext:value-type="float">
+            <text:p>65,5842</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="65.5841" calcext:value-type="float">
+            <text:p>65,5841</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="65.5833" calcext:value-type="float">
+            <text:p>65,5833</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C33]" office:value-type="float" office:value="1.00000152475981" calcext:value-type="float">
+            <text:p>1,00000152475981</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D33]" office:value-type="float" office:value="1.0000137230057" calcext:value-type="float">
+            <text:p>1,0000137230057</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -416,11 +597,17 @@
             <text:p>N=512,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>34.2837</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>33.4536</text:p>
+          <table:table-cell office:value-type="float" office:value="34.2837" calcext:value-type="float">
+            <text:p>34,2837</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="33.4536" calcext:value-type="float">
+            <text:p>33,4536</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C34]" office:value-type="float" office:value="1.91298488786216" calcext:value-type="float">
+            <text:p>1,91298488786216</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D34]" office:value-type="float" office:value="1.96045268670636" calcext:value-type="float">
+            <text:p>1,96045268670636</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -428,11 +615,17 @@
             <text:p>N=512,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>17.5524</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>16.5471</text:p>
+          <table:table-cell office:value-type="float" office:value="17.5524" calcext:value-type="float">
+            <text:p>17,5524</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="16.5471" calcext:value-type="float">
+            <text:p>16,5471</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C35]" office:value-type="float" office:value="3.7364804813017" calcext:value-type="float">
+            <text:p>3,7364804813017</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D35]" office:value-type="float" office:value="3.96348604891492" calcext:value-type="float">
+            <text:p>3,96348604891492</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -440,11 +633,17 @@
             <text:p>N=512,Thread=8, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9.32986</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>8.40291</text:p>
+          <table:table-cell office:value-type="float" office:value="9.32986" calcext:value-type="float">
+            <text:p>9,32986</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8.40291" calcext:value-type="float">
+            <text:p>8,40291</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C36]" office:value-type="float" office:value="7.02949454761379" calcext:value-type="float">
+            <text:p>7,02949454761379</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D36]" office:value-type="float" office:value="7.80493900327387" calcext:value-type="float">
+            <text:p>7,80493900327387</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -452,11 +651,17 @@
             <text:p>N=512,Thread=16, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>8.36034</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6.35851</text:p>
+          <table:table-cell office:value-type="float" office:value="8.36034" calcext:value-type="float">
+            <text:p>8,36034</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6.35851" calcext:value-type="float">
+            <text:p>6,35851</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C37]" office:value-type="float" office:value="7.84468095795147" calcext:value-type="float">
+            <text:p>7,84468095795147</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D37]" office:value-type="float" office:value="10.3143975554021" calcext:value-type="float">
+            <text:p>10,3143975554021</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -464,11 +669,17 @@
             <text:p>N=512,Thread=32, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>7.24261</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5.25371</text:p>
+          <table:table-cell office:value-type="float" office:value="7.24261" calcext:value-type="float">
+            <text:p>7,24261</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="5.25371" calcext:value-type="float">
+            <text:p>5,25371</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C38]" office:value-type="float" office:value="9.05532673994596" calcext:value-type="float">
+            <text:p>9,05532673994596</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D38]" office:value-type="float" office:value="12.4834069638408" calcext:value-type="float">
+            <text:p>12,4834069638408</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -476,18 +687,24 @@
             <text:p>N=512,Thread=40, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>7.19698</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5.20369</text:p>
+          <table:table-cell office:value-type="float" office:value="7.19698" calcext:value-type="float">
+            <text:p>7,19698</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="5.20369" calcext:value-type="float">
+            <text:p>5,20369</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C39]" office:value-type="float" office:value="9.11273895439476" calcext:value-type="float">
+            <text:p>9,11273895439476</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D39]" office:value-type="float" office:value="12.603402585473" calcext:value-type="float">
+            <text:p>12,603402585473</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048536">
-          <table:table-cell table:number-columns-repeated="4"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -500,11 +717,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-04-09T17:52:10.097789529</meta:creation-date>
-    <dc:date>2024-04-12T10:42:06.784172451</dc:date>
-    <meta:editing-duration>PT3H26M40S</meta:editing-duration>
-    <meta:editing-cycles>17</meta:editing-cycles>
+    <dc:date>2024-04-14T16:33:56.546261232</dc:date>
+    <meta:editing-duration>PT4H17M7S</meta:editing-duration>
+    <meta:editing-cycles>21</meta:editing-cycles>
     <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="108" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="176" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -515,15 +732,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">16686</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">26136</config:config-item>
       <config:config-item config:name="VisibleAreaHeight" config:type="int">17611</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">34</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">39</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -540,7 +757,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">887</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1847</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -783,9 +1000,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-04-12">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-04-14">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="09:02:35.425497321">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="16:19:14.574673929">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Assignment1/result.xlsx
+++ b/Assignment1/result.xlsx
@@ -104,14 +104,14 @@
             <text:p>N=4,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.00356625" calcext:value-type="float">
-            <text:p>0,00356625</text:p>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.00324217" calcext:value-type="float">
+            <text:p>0,00324217</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce6" office:value-type="float" office:value="0.00313312" calcext:value-type="float">
             <text:p>0,00313312</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B2]/[.C3]" office:value-type="float" office:value="1.14665825446898" calcext:value-type="float">
-            <text:p>1,14665825446898</text:p>
+          <table:table-cell table:formula="of:=[.B2]/[.C3]" office:value-type="float" office:value="1.26127562712628" calcext:value-type="float">
+            <text:p>1,26127562712628</text:p>
           </table:table-cell>
           <table:table-cell table:formula="of:=[.B2]/[.D3]" office:value-type="float" office:value="1.30517503319375" calcext:value-type="float">
             <text:p>1,30517503319375</text:p>
@@ -122,14 +122,14 @@
             <text:p>N=4,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.00331601" calcext:value-type="float">
-            <text:p>0,00331601</text:p>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.00296711" calcext:value-type="float">
+            <text:p>0,00296711</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce6" office:value-type="float" office:value="0.00295609" calcext:value-type="float">
             <text:p>0,00295609</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B2]/[.C4]" office:value-type="float" office:value="1.23318988784714" calcext:value-type="float">
-            <text:p>1,23318988784714</text:p>
+          <table:table-cell table:formula="of:=[.B2]/[.C4]" office:value-type="float" office:value="1.37819966229766" calcext:value-type="float">
+            <text:p>1,37819966229766</text:p>
           </table:table-cell>
           <table:table-cell table:formula="of:=[.B2]/[.D4]" office:value-type="float" office:value="1.38333744913044" calcext:value-type="float">
             <text:p>1,38333744913044</text:p>
@@ -163,14 +163,14 @@
             <text:p>N=8,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="0.0130884" calcext:value-type="float">
-            <text:p>0,0130884</text:p>
+          <table:table-cell office:value-type="float" office:value="0.0128219" calcext:value-type="float">
+            <text:p>0,0128219</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="0.0124747" calcext:value-type="float">
             <text:p>0,0124747</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B6]/[.C7]" office:value-type="float" office:value="1.58103358699306" calcext:value-type="float">
-            <text:p>1,58103358699306</text:p>
+          <table:table-cell table:formula="of:=[.B6]/[.C7]" office:value-type="float" office:value="1.61389497656354" calcext:value-type="float">
+            <text:p>1,61389497656354</text:p>
           </table:table-cell>
           <table:table-cell table:formula="of:=[.B6]/[.D7]" office:value-type="float" office:value="1.65881343839932" calcext:value-type="float">
             <text:p>1,65881343839932</text:p>
@@ -181,14 +181,14 @@
             <text:p>N=8,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="0.00955151" calcext:value-type="float">
-            <text:p>0,00955151</text:p>
+          <table:table-cell office:value-type="float" office:value="0.00924847" calcext:value-type="float">
+            <text:p>0,00924847</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="0.00836691" calcext:value-type="float">
             <text:p>0,00836691</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B6]/[.C8]" office:value-type="float" office:value="2.16648467101013" calcext:value-type="float">
-            <text:p>2,16648467101013</text:p>
+          <table:table-cell table:formula="of:=[.B6]/[.C8]" office:value-type="float" office:value="2.23747279279708" calcext:value-type="float">
+            <text:p>2,23747279279708</text:p>
           </table:table-cell>
           <table:table-cell table:formula="of:=[.B6]/[.D8]" office:value-type="float" office:value="2.4732189063824" calcext:value-type="float">
             <text:p>2,4732189063824</text:p>
@@ -199,14 +199,14 @@
             <text:p>N=8,Thread=8, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="0.00778859" calcext:value-type="float">
-            <text:p>0,00778859</text:p>
+          <table:table-cell office:value-type="float" office:value="0.00746941" calcext:value-type="float">
+            <text:p>0,00746941</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="0.00752128" calcext:value-type="float">
             <text:p>0,00752128</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B6]/[.C9]" office:value-type="float" office:value="2.65686086955405" calcext:value-type="float">
-            <text:p>2,65686086955405</text:p>
+          <table:table-cell table:formula="of:=[.B6]/[.C9]" office:value-type="float" office:value="2.77039284227268" calcext:value-type="float">
+            <text:p>2,77039284227268</text:p>
           </table:table-cell>
           <table:table-cell table:formula="of:=[.B6]/[.D9]" office:value-type="float" office:value="2.75128701497617" calcext:value-type="float">
             <text:p>2,75128701497617</text:p>
@@ -466,17 +466,17 @@
             <text:p>N=256,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="8.84593" calcext:value-type="float">
-            <text:p>8,84593</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8.54937" calcext:value-type="float">
-            <text:p>8,54937</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.C26]" office:value-type="float" office:value="1.86421325965727" calcext:value-type="float">
-            <text:p>1,86421325965727</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.D26]" office:value-type="float" office:value="1.92887897002937" calcext:value-type="float">
-            <text:p>1,92887897002937</text:p>
+          <table:table-cell office:value-type="float" office:value="8.5305" calcext:value-type="float">
+            <text:p>8,5305</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8.28782" calcext:value-type="float">
+            <text:p>8,28782</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C26]" office:value-type="float" office:value="1.9331457710568" calcext:value-type="float">
+            <text:p>1,9331457710568</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D26]" office:value-type="float" office:value="1.98975122529206" calcext:value-type="float">
+            <text:p>1,98975122529206</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -484,17 +484,17 @@
             <text:p>N=256,Thread=4, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="5.23857" calcext:value-type="float">
-            <text:p>5,23857</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4.77091" calcext:value-type="float">
-            <text:p>4,77091</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.C27]" office:value-type="float" office:value="3.14793922769" calcext:value-type="float">
-            <text:p>3,14793922769</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.D27]" office:value-type="float" office:value="3.45651039319543" calcext:value-type="float">
-            <text:p>3,45651039319543</text:p>
+          <table:table-cell office:value-type="float" office:value="4.50842" calcext:value-type="float">
+            <text:p>4,50842</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4.20051" calcext:value-type="float">
+            <text:p>4,20051</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C27]" office:value-type="float" office:value="3.65775593223347" calcext:value-type="float">
+            <text:p>3,65775593223347</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D27]" office:value-type="float" office:value="3.92588042880507" calcext:value-type="float">
+            <text:p>3,92588042880507</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -502,17 +502,17 @@
             <text:p>N=256,Thread=8, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="3.54753" calcext:value-type="float">
-            <text:p>3,54753</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2.85949" calcext:value-type="float">
-            <text:p>2,85949</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.C28]" office:value-type="float" office:value="4.64850191541721" calcext:value-type="float">
-            <text:p>4,64850191541721</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.D28]" office:value-type="float" office:value="5.76700740341809" calcext:value-type="float">
-            <text:p>5,76700740341809</text:p>
+          <table:table-cell office:value-type="float" office:value="2.45088" calcext:value-type="float">
+            <text:p>2,45088</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2.16657" calcext:value-type="float">
+            <text:p>2,16657</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C28]" office:value-type="float" office:value="6.72848119858989" calcext:value-type="float">
+            <text:p>6,72848119858989</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D28]" office:value-type="float" office:value="7.61143189465376" calcext:value-type="float">
+            <text:p>7,61143189465376</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -520,17 +520,17 @@
             <text:p>N=256,Thread=16, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="2.67643" calcext:value-type="float">
-            <text:p>2,67643</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1.99214" calcext:value-type="float">
-            <text:p>1,99214</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.C29]" office:value-type="float" office:value="6.16145387699286" calcext:value-type="float">
-            <text:p>6,16145387699286</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.D29]" office:value-type="float" office:value="8.27788207656088" calcext:value-type="float">
-            <text:p>8,27788207656088</text:p>
+          <table:table-cell office:value-type="float" office:value="1.38306" calcext:value-type="float">
+            <text:p>1,38306</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.15542" calcext:value-type="float">
+            <text:p>1,15542</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C29]" office:value-type="float" office:value="11.923343889636" calcext:value-type="float">
+            <text:p>11,923343889636</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D29]" office:value-type="float" office:value="14.2724723477177" calcext:value-type="float">
+            <text:p>14,2724723477177</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -538,17 +538,17 @@
             <text:p>N=256,Thread=32, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="2.21867" calcext:value-type="float">
-            <text:p>2,21867</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1.69124" calcext:value-type="float">
-            <text:p>1,69124</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.C30]" office:value-type="float" office:value="7.43269616481947" calcext:value-type="float">
-            <text:p>7,43269616481947</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.D30]" office:value-type="float" office:value="9.75065632317116" calcext:value-type="float">
-            <text:p>9,75065632317116</text:p>
+          <table:table-cell office:value-type="float" office:value="0.829177" calcext:value-type="float">
+            <text:p>0,829177</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.655441" calcext:value-type="float">
+            <text:p>0,655441</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C30]" office:value-type="float" office:value="19.8880335561647" calcext:value-type="float">
+            <text:p>19,8880335561647</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D30]" office:value-type="float" office:value="25.1597016359977" calcext:value-type="float">
+            <text:p>25,1597016359977</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -556,17 +556,17 @@
             <text:p>N=256,Thread=40, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="2.23406" calcext:value-type="float">
-            <text:p>2,23406</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1.67213" calcext:value-type="float">
-            <text:p>1,67213</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.C31]" office:value-type="float" office:value="7.38149378261998" calcext:value-type="float">
-            <text:p>7,38149378261998</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B25]/[.D31]" office:value-type="float" office:value="9.86209206222004" calcext:value-type="float">
-            <text:p>9,86209206222004</text:p>
+          <table:table-cell office:value-type="float" office:value="0.716863" calcext:value-type="float">
+            <text:p>0,716863</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.558642" calcext:value-type="float">
+            <text:p>0,558642</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.C31]" office:value-type="float" office:value="23.0039770500082" calcext:value-type="float">
+            <text:p>23,0039770500082</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B25]/[.D31]" office:value-type="float" office:value="29.519262783679" calcext:value-type="float">
+            <text:p>29,519262783679</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -597,17 +597,17 @@
             <text:p>N=512,Thread=2, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="34.2837" calcext:value-type="float">
-            <text:p>34,2837</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="33.4536" calcext:value-type="float">
-            <text:p>33,4536</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B33]/[.C34]" office:value-type="float" office:value="1.91298488786216" calcext:value-type="float">
-            <text:p>1,91298488786216</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B33]/[.D34]" office:value-type="float" office:value="1.96045268670636" calcext:value-type="float">
-            <text:p>1,96045268670636</text:p>
+          <table:table-cell office:value-type="float" office:value="33.6132" calcext:value-type="float">
+            <text:p>33,6132</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="32.868" calcext:value-type="float">
+            <text:p>32,868</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C34]" office:value-type="float" office:value="1.95114419335261" calcext:value-type="float">
+            <text:p>1,95114419335261</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D34]" office:value-type="float" office:value="1.99538152610442" calcext:value-type="float">
+            <text:p>1,99538152610442</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -651,17 +651,17 @@
             <text:p>N=512,Thread=16, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="8.36034" calcext:value-type="float">
-            <text:p>8,36034</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6.35851" calcext:value-type="float">
-            <text:p>6,35851</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B33]/[.C37]" office:value-type="float" office:value="7.84468095795147" calcext:value-type="float">
-            <text:p>7,84468095795147</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B33]/[.D37]" office:value-type="float" office:value="10.3143975554021" calcext:value-type="float">
-            <text:p>10,3143975554021</text:p>
+          <table:table-cell office:value-type="float" office:value="5.09843" calcext:value-type="float">
+            <text:p>5,09843</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4.34469" calcext:value-type="float">
+            <text:p>4,34469</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C37]" office:value-type="float" office:value="12.8636070319687" calcext:value-type="float">
+            <text:p>12,8636070319687</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D37]" office:value-type="float" office:value="15.0952542068594" calcext:value-type="float">
+            <text:p>15,0952542068594</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -669,17 +669,17 @@
             <text:p>N=512,Thread=32, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="7.24261" calcext:value-type="float">
-            <text:p>7,24261</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5.25371" calcext:value-type="float">
-            <text:p>5,25371</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B33]/[.C38]" office:value-type="float" office:value="9.05532673994596" calcext:value-type="float">
-            <text:p>9,05532673994596</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B33]/[.D38]" office:value-type="float" office:value="12.4834069638408" calcext:value-type="float">
-            <text:p>12,4834069638408</text:p>
+          <table:table-cell office:value-type="float" office:value="2.9225" calcext:value-type="float">
+            <text:p>2,9225</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2.32933" calcext:value-type="float">
+            <text:p>2,32933</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C38]" office:value-type="float" office:value="22.441129170231" calcext:value-type="float">
+            <text:p>22,441129170231</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D38]" office:value-type="float" office:value="28.1558216311128" calcext:value-type="float">
+            <text:p>28,1558216311128</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -687,17 +687,17 @@
             <text:p>N=512,Thread=40, Min=0, max=1000</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="7.19698" calcext:value-type="float">
-            <text:p>7,19698</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5.20369" calcext:value-type="float">
-            <text:p>5,20369</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B33]/[.C39]" office:value-type="float" office:value="9.11273895439476" calcext:value-type="float">
-            <text:p>9,11273895439476</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B33]/[.D39]" office:value-type="float" office:value="12.603402585473" calcext:value-type="float">
-            <text:p>12,603402585473</text:p>
+          <table:table-cell office:value-type="float" office:value="2.46665" calcext:value-type="float">
+            <text:p>2,46665</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.92884" calcext:value-type="float">
+            <text:p>1,92884</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.C39]" office:value-type="float" office:value="26.58836884033" calcext:value-type="float">
+            <text:p>26,58836884033</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B33]/[.D39]" office:value-type="float" office:value="34.001887144605" calcext:value-type="float">
+            <text:p>34,001887144605</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048536">
@@ -717,9 +717,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-04-09T17:52:10.097789529</meta:creation-date>
-    <dc:date>2024-04-14T16:33:56.546261232</dc:date>
-    <meta:editing-duration>PT4H17M7S</meta:editing-duration>
-    <meta:editing-cycles>21</meta:editing-cycles>
+    <dc:date>2024-04-14T18:21:54.437455258</dc:date>
+    <meta:editing-duration>PT5H24M5S</meta:editing-duration>
+    <meta:editing-cycles>25</meta:editing-cycles>
     <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="176" meta:object-count="0"/>
   </office:meta>
@@ -739,8 +739,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">39</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">26</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -757,7 +757,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1847</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">887</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -818,7 +818,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">1gH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleHREYXRhClBhZ2VTaXplOkE0AER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">1gH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleHREYXRhCkR1cGxleDpOb25lAFBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
@@ -1002,7 +1002,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2024-04-14">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="16:19:14.574673929">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="17:14:54.043208273">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Assignment1/result.xlsx
+++ b/Assignment1/result.xlsx
@@ -2,14 +2,464 @@
 <file path=META-INF/manifest.xml><?xml version="1.0" encoding="utf-8"?>
 <manifest:manifest xmlns:manifest="urn:oasis:names:tc:opendocument:xmlns:manifest:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" manifest:version="1.3">
   <manifest:file-entry manifest:full-path="/" manifest:version="1.3" manifest:media-type="application/vnd.oasis.opendocument.spreadsheet"/>
+  <manifest:file-entry manifest:full-path="ObjectReplacements/Object 2" manifest:media-type="application/x-openoffice-gdimetafile;windows_formatname=&quot;GDIMetaFile&quot;"/>
+  <manifest:file-entry manifest:full-path="ObjectReplacements/Object 1" manifest:media-type=""/>
+  <manifest:file-entry manifest:full-path="Object 1/meta.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 1/styles.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 1/content.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 1/" manifest:media-type="application/vnd.oasis.opendocument.chart"/>
   <manifest:file-entry manifest:full-path="Configurations2/" manifest:media-type="application/vnd.sun.xml.ui.configuration"/>
   <manifest:file-entry manifest:full-path="styles.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 2/meta.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 2/styles.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 2/content.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 2/" manifest:media-type="application/vnd.oasis.opendocument.chart"/>
   <manifest:file-entry manifest:full-path="manifest.rdf" manifest:media-type="application/rdf+xml"/>
   <manifest:file-entry manifest:full-path="content.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="meta.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="settings.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="Thumbnails/thumbnail.png" manifest:media-type="image/png"/>
 </manifest:manifest>
+</file>
+
+<file path=Object 1/content.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-content xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:rpt="http://openoffice.org/2005/report" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.3">
+  <office:automatic-styles>
+    <number:number-style style:name="N0">
+      <number:number number:min-integer-digits="1"/>
+    </number:number-style>
+    <style:style style:name="ch1" style:family="chart">
+      <style:graphic-properties draw:stroke="none"/>
+    </style:style>
+    <style:style style:name="ch2" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="0"/>
+      <style:text-properties fo:font-size="13pt" style:font-size-asian="13pt" style:font-size-complex="13pt"/>
+    </style:style>
+    <style:style style:name="ch3" style:family="chart">
+      <style:chart-properties chart:auto-position="true"/>
+      <style:graphic-properties draw:stroke="none" svg:stroke-color="#b3b3b3" draw:fill="none" draw:fill-color="#e6e6e6"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch4" style:family="chart">
+      <style:chart-properties chart:symbol-type="automatic" chart:include-hidden-cells="false" chart:auto-position="true" chart:auto-size="true" chart:treat-empty-cells="leave-gap" chart:right-angled-axes="true"/>
+    </style:style>
+    <style:style style:name="ch5" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:display-label="true" chart:logarithmic="false" chart:reverse-direction="false" text:line-break="false" loext:try-staggering-first="false" chart:link-data-style-to-source="true" chart:axis-position="0"/>
+      <style:graphic-properties svg:stroke-color="#b3b3b3"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch6" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="0"/>
+      <style:text-properties fo:font-size="9pt" style:font-size-asian="9pt" style:font-size-complex="9pt"/>
+    </style:style>
+    <style:style style:name="ch7" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="90"/>
+      <style:text-properties fo:font-size="9pt" style:font-size-asian="9pt" style:font-size-complex="9pt"/>
+    </style:style>
+    <style:style style:name="ch8" style:family="chart">
+      <style:graphic-properties svg:stroke-color="#b3b3b3"/>
+    </style:style>
+    <style:style style:name="ch9" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="square" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#004586" draw:fill-color="#004586" dr3d:edge-rounding="5%"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch10" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="diamond" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#ff420e" draw:fill-color="#ff420e"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch11" style:family="chart">
+      <style:graphic-properties draw:stroke="solid" svg:stroke-color="#b3b3b3" draw:fill="none" draw:fill-color="#e6e6e6"/>
+    </style:style>
+    <style:style style:name="ch12" style:family="chart">
+      <style:graphic-properties svg:stroke-color="#b3b3b3" draw:fill-color="#cccccc"/>
+    </style:style>
+  </office:automatic-styles>
+  <office:body>
+    <office:chart>
+      <chart:chart svg:width="16.017cm" svg:height="9.005cm" xlink:href=".." xlink:type="simple" chart:class="chart:line" chart:column-mapping="0" chart:style-name="ch1">
+        <chart:title svg:x="5.001cm" svg:y="0.316cm" chart:style-name="ch2">
+          <text:p>Static vs dynamic distribution</text:p>
+        </chart:title>
+        <chart:legend chart:legend-position="end" svg:x="13.324cm" svg:y="3.954cm" style:legend-expansion="high" chart:style-name="ch3"/>
+        <chart:plot-area chart:style-name="ch4" table:cell-range-address="Sheet1.H33:Sheet1.H39 Sheet1.C1:Sheet1.D1 Sheet1.E33:Sheet1.F39" chart:data-source-has-labels="both" svg:x="1.331cm" svg:y="1.275cm" svg:width="11.673cm" svg:height="6.569cm">
+          <chart:coordinate-region svg:x="1.952cm" svg:y="1.475cm" svg:width="10.865cm" svg:height="5.722cm"/>
+          <chart:axis chart:dimension="x" chart:name="primary-x" chart:style-name="ch5" chartooo:axis-type="auto">
+            <chartooo:date-scale/>
+            <chart:title svg:x="5.774cm" svg:y="8.024cm" chart:style-name="ch6">
+              <text:p>Number of threads</text:p>
+            </chart:title>
+            <chart:categories table:cell-range-address="Sheet1.H33:Sheet1.H39"/>
+          </chart:axis>
+          <chart:axis chart:dimension="y" chart:name="primary-y" chart:style-name="ch5">
+            <chart:title svg:x="0.451cm" svg:y="5.886cm" chart:style-name="ch7">
+              <text:p>Relative speedup</text:p>
+            </chart:title>
+            <chart:grid chart:style-name="ch8" chart:class="major"/>
+          </chart:axis>
+          <chart:series chart:style-name="ch9" chart:values-cell-range-address="Sheet1.E33:Sheet1.E39" chart:label-cell-address="Sheet1.C1:Sheet1.C1" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:series chart:style-name="ch10" chart:values-cell-range-address="Sheet1.F33:Sheet1.F39" chart:label-cell-address="Sheet1.D1:Sheet1.D1" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:wall chart:style-name="ch11"/>
+          <chart:floor chart:style-name="ch12"/>
+        </chart:plot-area>
+        <table:table table:name="local-table">
+          <table:table-header-columns>
+            <table:table-column/>
+          </table:table-header-columns>
+          <table:table-columns>
+            <table:table-column table:number-columns-repeated="2"/>
+          </table:table-columns>
+          <table:table-header-rows>
+            <table:table-row>
+              <table:table-cell>
+                <text:p/>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Static</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.C1:Sheet1.C1</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Dynamic</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.D1:Sheet1.D1</svg:desc>
+                </draw:g>
+              </table:table-cell>
+            </table:table-row>
+          </table:table-header-rows>
+          <table:table-rows>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="1">
+                <text:p>1</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.H33:Sheet1.H39</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.00000152475981">
+                <text:p>1.00000152475981</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E33:Sheet1.E39</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.0000137230057">
+                <text:p>1.0000137230057</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F33:Sheet1.F39</svg:desc>
+                </draw:g>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="2">
+                <text:p>2</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.95114419335261">
+                <text:p>1.95114419335261</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.99538152610442">
+                <text:p>1.99538152610442</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="4">
+                <text:p>4</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="3.7364804813017">
+                <text:p>3.7364804813017</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="3.96348604891492">
+                <text:p>3.96348604891492</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="8">
+                <text:p>8</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="7.02949454761379">
+                <text:p>7.02949454761379</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="7.80493900327387">
+                <text:p>7.80493900327387</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="16">
+                <text:p>16</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="12.8636070319687">
+                <text:p>12.8636070319687</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="15.0952542068594">
+                <text:p>15.0952542068594</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="32">
+                <text:p>32</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="22.441129170231">
+                <text:p>22.441129170231</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="28.1558216311128">
+                <text:p>28.1558216311128</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="40">
+                <text:p>40</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="26.58836884033">
+                <text:p>26.58836884033</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="34.001887144605">
+                <text:p>34.001887144605</text:p>
+              </table:table-cell>
+            </table:table-row>
+          </table:table-rows>
+        </table:table>
+      </chart:chart>
+    </office:chart>
+  </office:body>
+</office:document-content>
+</file>
+
+<file path=Object 1/meta.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
+  <office:meta>
+    <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
+  </office:meta>
+</office:document-meta>
+</file>
+
+<file path=Object 1/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-styles xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:rpt="http://openoffice.org/2005/report" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" office:version="1.3">
+  <office:styles/>
+</office:document-styles>
+</file>
+
+<file path=Object 2/content.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-content xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:rpt="http://openoffice.org/2005/report" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.3">
+  <office:automatic-styles>
+    <number:number-style style:name="N0">
+      <number:number number:min-integer-digits="1"/>
+    </number:number-style>
+    <style:style style:name="ch1" style:family="chart">
+      <style:graphic-properties draw:stroke="none"/>
+    </style:style>
+    <style:style style:name="ch2" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="0"/>
+      <style:text-properties fo:font-size="13pt" style:font-size-asian="13pt" style:font-size-complex="13pt"/>
+    </style:style>
+    <style:style style:name="ch3" style:family="chart">
+      <style:chart-properties chart:auto-position="true"/>
+      <style:graphic-properties draw:stroke="none" svg:stroke-color="#b3b3b3" draw:fill="none" draw:fill-color="#e6e6e6"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch4" style:family="chart">
+      <style:chart-properties chart:symbol-type="automatic" chart:include-hidden-cells="false" chart:auto-position="true" chart:auto-size="true" chart:treat-empty-cells="leave-gap" chart:right-angled-axes="true"/>
+    </style:style>
+    <style:style style:name="ch5" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:display-label="true" chart:logarithmic="false" chart:reverse-direction="false" text:line-break="false" loext:try-staggering-first="false" chart:link-data-style-to-source="true" chart:axis-position="0"/>
+      <style:graphic-properties svg:stroke-color="#b3b3b3"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch6" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="0"/>
+      <style:text-properties fo:font-size="9pt" style:font-size-asian="9pt" style:font-size-complex="9pt"/>
+    </style:style>
+    <style:style style:name="ch7" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="90"/>
+      <style:text-properties fo:font-size="9pt" style:font-size-asian="9pt" style:font-size-complex="9pt"/>
+    </style:style>
+    <style:style style:name="ch8" style:family="chart">
+      <style:graphic-properties svg:stroke-color="#b3b3b3"/>
+    </style:style>
+    <style:style style:name="ch9" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="square" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#004586" draw:fill-color="#004586" dr3d:edge-rounding="5%"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch10" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="diamond" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#ff420e" draw:fill-color="#ff420e"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch11" style:family="chart">
+      <style:graphic-properties draw:stroke="solid" svg:stroke-color="#b3b3b3" draw:fill="none" draw:fill-color="#e6e6e6"/>
+    </style:style>
+    <style:style style:name="ch12" style:family="chart">
+      <style:graphic-properties svg:stroke-color="#b3b3b3" draw:fill-color="#cccccc"/>
+    </style:style>
+  </office:automatic-styles>
+  <office:body>
+    <office:chart>
+      <chart:chart svg:width="15.989cm" svg:height="9.005cm" xlink:href=".." xlink:type="simple" chart:class="chart:line" chart:column-mapping="0" chart:style-name="ch1">
+        <chart:title svg:x="4.987cm" svg:y="0.316cm" chart:style-name="ch2">
+          <text:p>Static vs dynamic distribution</text:p>
+        </chart:title>
+        <chart:legend chart:legend-position="end" svg:x="13.296cm" svg:y="3.954cm" style:legend-expansion="high" chart:style-name="ch3"/>
+        <chart:plot-area chart:style-name="ch4" table:cell-range-address="Sheet1.H33:Sheet1.H39 Sheet1.C1:Sheet1.D1 Sheet1.C33:Sheet1.D39" chart:data-source-has-labels="both" svg:x="1.33cm" svg:y="1.275cm" svg:width="11.647cm" svg:height="6.569cm">
+          <chart:coordinate-region svg:x="1.951cm" svg:y="1.475cm" svg:width="10.839cm" svg:height="5.722cm"/>
+          <chart:axis chart:dimension="x" chart:name="primary-x" chart:style-name="ch5" chartooo:axis-type="auto">
+            <chartooo:date-scale/>
+            <chart:title svg:x="5.76cm" svg:y="8.024cm" chart:style-name="ch6">
+              <text:p>Number of threads</text:p>
+            </chart:title>
+            <chart:categories table:cell-range-address="Sheet1.H33:Sheet1.H39"/>
+          </chart:axis>
+          <chart:axis chart:dimension="y" chart:name="primary-y" chart:style-name="ch5">
+            <chart:title svg:x="0.451cm" svg:y="5.794cm" chart:style-name="ch7">
+              <text:p>Time in seconds</text:p>
+            </chart:title>
+            <chart:grid chart:style-name="ch8" chart:class="major"/>
+          </chart:axis>
+          <chart:series chart:style-name="ch9" chart:values-cell-range-address="Sheet1.C33:Sheet1.C39" chart:label-cell-address="Sheet1.C1:Sheet1.C1" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:series chart:style-name="ch10" chart:values-cell-range-address="Sheet1.D33:Sheet1.D39" chart:label-cell-address="Sheet1.D1:Sheet1.D1" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:wall chart:style-name="ch11"/>
+          <chart:floor chart:style-name="ch12"/>
+        </chart:plot-area>
+        <table:table table:name="local-table">
+          <table:table-header-columns>
+            <table:table-column/>
+          </table:table-header-columns>
+          <table:table-columns>
+            <table:table-column table:number-columns-repeated="2"/>
+          </table:table-columns>
+          <table:table-header-rows>
+            <table:table-row>
+              <table:table-cell>
+                <text:p/>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Static</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.C1:Sheet1.C1</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Dynamic</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.D1:Sheet1.D1</svg:desc>
+                </draw:g>
+              </table:table-cell>
+            </table:table-row>
+          </table:table-header-rows>
+          <table:table-rows>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="1">
+                <text:p>1</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.H33:Sheet1.H39</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="65.5841">
+                <text:p>65.5841</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.C33:Sheet1.C39</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="65.5833">
+                <text:p>65.5833</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.D33:Sheet1.D39</svg:desc>
+                </draw:g>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="2">
+                <text:p>2</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="33.6132">
+                <text:p>33.6132</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="32.868">
+                <text:p>32.868</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="4">
+                <text:p>4</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="17.5524">
+                <text:p>17.5524</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="16.5471">
+                <text:p>16.5471</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="8">
+                <text:p>8</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="9.32986">
+                <text:p>9.32986</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="8.40291">
+                <text:p>8.40291</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="16">
+                <text:p>16</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="5.09843">
+                <text:p>5.09843</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="4.34469">
+                <text:p>4.34469</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="32">
+                <text:p>32</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="2.9225">
+                <text:p>2.9225</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="2.32933">
+                <text:p>2.32933</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="40">
+                <text:p>40</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="2.46665">
+                <text:p>2.46665</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.92884">
+                <text:p>1.92884</text:p>
+              </table:table-cell>
+            </table:table-row>
+          </table:table-rows>
+        </table:table>
+      </chart:chart>
+    </office:chart>
+  </office:body>
+</office:document-content>
+</file>
+
+<file path=Object 2/meta.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
+  <office:meta>
+    <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
+  </office:meta>
+</office:document-meta>
+</file>
+
+<file path=Object 2/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-styles xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:rpt="http://openoffice.org/2005/report" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" office:version="1.3">
+  <office:styles/>
+</office:document-styles>
 </file>
 
 <file path=content.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,16 +501,39 @@
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
     </style:style>
+    <style:style style:name="gr1" style:family="graphic" style:parent-style-name="Default">
+      <style:graphic-properties draw:stroke="none" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:ole-draw-aspect="1" loext:decorative="false"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="P1" style:family="paragraph">
+      <loext:graphic-properties draw:fill="none"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
   </office:automatic-styles>
   <office:body>
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
+        <table:shapes>
+          <draw:frame draw:z-index="0" draw:style-name="gr1" draw:text-style-name="P1" svg:width="16.016cm" svg:height="9.004cm" svg:x="31.373cm" svg:y="0.426cm">
+            <draw:object draw:notify-on-update-of-ranges="Sheet1.H33:Sheet1.H39 Sheet1.C1:Sheet1.C1 Sheet1.E33:Sheet1.E39 Sheet1.D1:Sheet1.D1 Sheet1.F33:Sheet1.F39" xlink:href="./Object 1" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+              <loext:p/>
+            </draw:object>
+            <draw:image xlink:href="./ObjectReplacements/Object 1" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad"/>
+          </draw:frame>
+          <draw:frame draw:z-index="1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="15.988cm" svg:height="9.004cm" svg:x="31.098cm" svg:y="10.386cm">
+            <draw:object draw:notify-on-update-of-ranges="Sheet1.H33:Sheet1.H39 Sheet1.C1:Sheet1.C1 Sheet1.C33:Sheet1.C39 Sheet1.D1:Sheet1.D1 Sheet1.D33:Sheet1.D39" xlink:href="./Object 2" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+              <loext:p/>
+            </draw:object>
+            <draw:image xlink:href="./ObjectReplacements/Object 2" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad"/>
+          </draw:frame>
+        </table:shapes>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co2" table:number-columns-repeated="2" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="ce5"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co5" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:number-columns-repeated="2" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -78,6 +551,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Speedup Dynamic</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -98,6 +572,7 @@
           <table:table-cell table:formula="of:=[.B2]/[.D2]" office:value-type="float" office:value="0.989874367601849" calcext:value-type="float">
             <text:p>0,989874367601849</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -116,6 +591,7 @@
           <table:table-cell table:formula="of:=[.B2]/[.D3]" office:value-type="float" office:value="1.30517503319375" calcext:value-type="float">
             <text:p>1,30517503319375</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -134,9 +610,10 @@
           <table:table-cell table:formula="of:=[.B2]/[.D4]" office:value-type="float" office:value="1.38333744913044" calcext:value-type="float">
             <text:p>1,38333744913044</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -157,6 +634,7 @@
           <table:table-cell table:formula="of:=[.B6]/[.D6]" office:value-type="float" office:value="0.997998524213034" calcext:value-type="float">
             <text:p>0,997998524213034</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -175,6 +653,7 @@
           <table:table-cell table:formula="of:=[.B6]/[.D7]" office:value-type="float" office:value="1.65881343839932" calcext:value-type="float">
             <text:p>1,65881343839932</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -193,6 +672,7 @@
           <table:table-cell table:formula="of:=[.B6]/[.D8]" office:value-type="float" office:value="2.4732189063824" calcext:value-type="float">
             <text:p>2,4732189063824</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -211,9 +691,10 @@
           <table:table-cell table:formula="of:=[.B6]/[.D9]" office:value-type="float" office:value="2.75128701497617" calcext:value-type="float">
             <text:p>2,75128701497617</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -234,6 +715,7 @@
           <table:table-cell table:formula="of:=[.B11]/[.D11]" office:value-type="float" office:value="0.999369942072286" calcext:value-type="float">
             <text:p>0,999369942072286</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -252,6 +734,7 @@
           <table:table-cell table:formula="of:=[.B11]/[.D12]" office:value-type="float" office:value="1.86671166740274" calcext:value-type="float">
             <text:p>1,86671166740274</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -270,6 +753,7 @@
           <table:table-cell table:formula="of:=[.B11]/[.D13]" office:value-type="float" office:value="3.23305692456127" calcext:value-type="float">
             <text:p>3,23305692456127</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -288,6 +772,7 @@
           <table:table-cell table:formula="of:=[.B11]/[.D14]" office:value-type="float" office:value="4.71400055763966" calcext:value-type="float">
             <text:p>4,71400055763966</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -306,9 +791,10 @@
           <table:table-cell table:formula="of:=[.B11]/[.D15]" office:value-type="float" office:value="5.12170386792063" calcext:value-type="float">
             <text:p>5,12170386792063</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -329,6 +815,7 @@
           <table:table-cell table:formula="of:=[.B17]/[.D17]" office:value-type="float" office:value="0.999855559514295" calcext:value-type="float">
             <text:p>0,999855559514295</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -347,6 +834,7 @@
           <table:table-cell table:formula="of:=[.B17]/[.D18]" office:value-type="float" office:value="1.94648725355849" calcext:value-type="float">
             <text:p>1,94648725355849</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -365,6 +853,7 @@
           <table:table-cell table:formula="of:=[.B17]/[.D19]" office:value-type="float" office:value="3.64571593091559" calcext:value-type="float">
             <text:p>3,64571593091559</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -383,6 +872,7 @@
           <table:table-cell table:formula="of:=[.B17]/[.D20]" office:value-type="float" office:value="6.49469898358092" calcext:value-type="float">
             <text:p>6,49469898358092</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -401,6 +891,7 @@
           <table:table-cell table:formula="of:=[.B17]/[.D21]" office:value-type="float" office:value="9.9093373034051" calcext:value-type="float">
             <text:p>9,9093373034051</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -419,6 +910,7 @@
           <table:table-cell table:formula="of:=[.B17]/[.D22]" office:value-type="float" office:value="12.2650847761942" calcext:value-type="float">
             <text:p>12,2650847761942</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -437,9 +929,10 @@
           <table:table-cell table:formula="of:=[.B17]/[.D23]" office:value-type="float" office:value="12.3518089831771" calcext:value-type="float">
             <text:p>12,3518089831771</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -460,6 +953,7 @@
           <table:table-cell table:formula="of:=[.B25]/[.D25]" office:value-type="float" office:value="0.999896922218719" calcext:value-type="float">
             <text:p>0,999896922218719</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -478,6 +972,7 @@
           <table:table-cell table:formula="of:=[.B25]/[.D26]" office:value-type="float" office:value="1.98975122529206" calcext:value-type="float">
             <text:p>1,98975122529206</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -496,6 +991,7 @@
           <table:table-cell table:formula="of:=[.B25]/[.D27]" office:value-type="float" office:value="3.92588042880507" calcext:value-type="float">
             <text:p>3,92588042880507</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -514,6 +1010,7 @@
           <table:table-cell table:formula="of:=[.B25]/[.D28]" office:value-type="float" office:value="7.61143189465376" calcext:value-type="float">
             <text:p>7,61143189465376</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -532,6 +1029,7 @@
           <table:table-cell table:formula="of:=[.B25]/[.D29]" office:value-type="float" office:value="14.2724723477177" calcext:value-type="float">
             <text:p>14,2724723477177</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -550,6 +1048,7 @@
           <table:table-cell table:formula="of:=[.B25]/[.D30]" office:value-type="float" office:value="25.1597016359977" calcext:value-type="float">
             <text:p>25,1597016359977</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -568,9 +1067,10 @@
           <table:table-cell table:formula="of:=[.B25]/[.D31]" office:value-type="float" office:value="29.519262783679" calcext:value-type="float">
             <text:p>29,519262783679</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -591,6 +1091,10 @@
           <table:table-cell table:formula="of:=[.B33]/[.D33]" office:value-type="float" office:value="1.0000137230057" calcext:value-type="float">
             <text:p>1,0000137230057</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -609,6 +1113,10 @@
           <table:table-cell table:formula="of:=[.B33]/[.D34]" office:value-type="float" office:value="1.99538152610442" calcext:value-type="float">
             <text:p>1,99538152610442</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -627,6 +1135,10 @@
           <table:table-cell table:formula="of:=[.B33]/[.D35]" office:value-type="float" office:value="3.96348604891492" calcext:value-type="float">
             <text:p>3,96348604891492</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -645,6 +1157,10 @@
           <table:table-cell table:formula="of:=[.B33]/[.D36]" office:value-type="float" office:value="7.80493900327387" calcext:value-type="float">
             <text:p>7,80493900327387</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -663,6 +1179,10 @@
           <table:table-cell table:formula="of:=[.B33]/[.D37]" office:value-type="float" office:value="15.0952542068594" calcext:value-type="float">
             <text:p>15,0952542068594</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
+            <text:p>16</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -681,6 +1201,10 @@
           <table:table-cell table:formula="of:=[.B33]/[.D38]" office:value-type="float" office:value="28.1558216311128" calcext:value-type="float">
             <text:p>28,1558216311128</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="32" calcext:value-type="float">
+            <text:p>32</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -699,12 +1223,215 @@
           <table:table-cell table:formula="of:=[.B33]/[.D39]" office:value-type="float" office:value="34.001887144605" calcext:value-type="float">
             <text:p>34,001887144605</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048536">
-          <table:table-cell table:number-columns-repeated="6"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="40" calcext:value-type="float">
+            <text:p>40</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=1, Min=500, max=500</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell/>
+          <table:table-cell table:formula="of:=[.B41]/[.C41]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D41]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=2, Min=500, max=500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:formula="of:=[.B41]/[.C42]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D42]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=4, Min=500, max=500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:formula="of:=[.B41]/[.C43]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D43]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=8, Min=500, max=500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:formula="of:=[.B41]/[.C44]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D44]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=16, Min=500, max=500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:formula="of:=[.B41]/[.C45]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D45]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=32, Min=500, max=500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:formula="of:=[.B41]/[.C46]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D46]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512,Thread=40, Min=500, max=500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:formula="of:=[.B41]/[.C47]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D47]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=16 Thread=1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0743907" calcext:value-type="float">
+            <text:p>0,0743907</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:formula="of:=[.B49]/[.C49]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B49]/[.D49]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=32 Thread=2</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:formula="of:=[.B50]/[.C50]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B50]/[.D50]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=64 Thread=8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.03834" calcext:value-type="float">
+            <text:p>1,03834</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:formula="of:=[.B51]/[.C51]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B51]/[.D51]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=128 Thread=16</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:formula="of:=[.B52]/[.C52]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B52]/[.D52]" office:value-type="string" office:string-value="" calcext:value-type="error">
+            <text:p>#DIV/0!</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=256 Thread=32</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="16.4907" calcext:value-type="float">
+            <text:p>16,4907</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.829177" calcext:value-type="float">
+            <text:p>0,829177</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.655441" calcext:value-type="float">
+            <text:p>0,655441</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B53]/[.C53]" office:value-type="float" office:value="19.8880335561647" calcext:value-type="float">
+            <text:p>19,8880335561647</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B53]/[.D53]" office:value-type="float" office:value="25.1597016359977" calcext:value-type="float">
+            <text:p>25,1597016359977</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512 Thread=40</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="65.5842" calcext:value-type="float">
+            <text:p>65,5842</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2.46665" calcext:value-type="float">
+            <text:p>2,46665</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.92884" calcext:value-type="float">
+            <text:p>1,92884</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B54]/[.C54]" office:value-type="float" office:value="26.58836884033" calcext:value-type="float">
+            <text:p>26,58836884033</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B54]/[.D54]" office:value-type="float" office:value="34.001887144605" calcext:value-type="float">
+            <text:p>34,001887144605</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048521">
+          <table:table-cell table:number-columns-repeated="8"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -717,11 +1444,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-04-09T17:52:10.097789529</meta:creation-date>
-    <dc:date>2024-04-14T18:21:54.437455258</dc:date>
-    <meta:editing-duration>PT5H24M5S</meta:editing-duration>
-    <meta:editing-cycles>25</meta:editing-cycles>
+    <dc:date>2024-04-17T12:55:57.951547913</dc:date>
+    <meta:editing-duration>PT6H33M37S</meta:editing-duration>
+    <meta:editing-cycles>34</meta:editing-cycles>
     <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="176" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="230" meta:object-count="2"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -732,20 +1459,20 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">26136</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">17611</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">48713</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">24384</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">26</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">51</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">1</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">20</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -1000,9 +1727,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-04-14">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-04-17">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="17:14:54.043208273">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="12:33:39.474546201">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Assignment1/result.xlsx
+++ b/Assignment1/result.xlsx
@@ -2,14 +2,19 @@
 <file path=META-INF/manifest.xml><?xml version="1.0" encoding="utf-8"?>
 <manifest:manifest xmlns:manifest="urn:oasis:names:tc:opendocument:xmlns:manifest:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" manifest:version="1.3">
   <manifest:file-entry manifest:full-path="/" manifest:version="1.3" manifest:media-type="application/vnd.oasis.opendocument.spreadsheet"/>
+  <manifest:file-entry manifest:full-path="ObjectReplacements/Object 3" manifest:media-type="application/x-openoffice-gdimetafile;windows_formatname=&quot;GDIMetaFile&quot;"/>
   <manifest:file-entry manifest:full-path="ObjectReplacements/Object 2" manifest:media-type="application/x-openoffice-gdimetafile;windows_formatname=&quot;GDIMetaFile&quot;"/>
-  <manifest:file-entry manifest:full-path="ObjectReplacements/Object 1" manifest:media-type=""/>
+  <manifest:file-entry manifest:full-path="ObjectReplacements/Object 1" manifest:media-type="application/x-openoffice-gdimetafile;windows_formatname=&quot;GDIMetaFile&quot;"/>
   <manifest:file-entry manifest:full-path="Object 1/meta.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="Object 1/styles.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="Object 1/content.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="Object 1/" manifest:media-type="application/vnd.oasis.opendocument.chart"/>
   <manifest:file-entry manifest:full-path="Configurations2/" manifest:media-type="application/vnd.sun.xml.ui.configuration"/>
   <manifest:file-entry manifest:full-path="styles.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 3/meta.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 3/styles.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 3/content.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Object 3/" manifest:media-type="application/vnd.oasis.opendocument.chart"/>
   <manifest:file-entry manifest:full-path="Object 2/meta.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="Object 2/styles.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="Object 2/content.xml" manifest:media-type="text/xml"/>
@@ -65,29 +70,39 @@
       <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
     </style:style>
     <style:style style:name="ch10" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="arrow-down" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#ffd320" draw:fill-color="#ffd320"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch11" style:family="chart" style:data-style-name="N0">
       <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="diamond" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
       <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#ff420e" draw:fill-color="#ff420e"/>
       <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
     </style:style>
-    <style:style style:name="ch11" style:family="chart">
+    <style:style style:name="ch12" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="arrow-up" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#579d1c" draw:fill-color="#579d1c"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch13" style:family="chart">
       <style:graphic-properties draw:stroke="solid" svg:stroke-color="#b3b3b3" draw:fill="none" draw:fill-color="#e6e6e6"/>
     </style:style>
-    <style:style style:name="ch12" style:family="chart">
+    <style:style style:name="ch14" style:family="chart">
       <style:graphic-properties svg:stroke-color="#b3b3b3" draw:fill-color="#cccccc"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
     <office:chart>
-      <chart:chart svg:width="16.017cm" svg:height="9.005cm" xlink:href=".." xlink:type="simple" chart:class="chart:line" chart:column-mapping="0" chart:style-name="ch1">
-        <chart:title svg:x="5.001cm" svg:y="0.316cm" chart:style-name="ch2">
-          <text:p>Static vs dynamic distribution</text:p>
+      <chart:chart svg:width="16.017cm" svg:height="9.005cm" xlink:href=".." xlink:type="simple" chart:class="chart:line" chart:style-name="ch1">
+        <chart:title svg:x="4.194cm" svg:y="0.316cm" chart:style-name="ch2">
+          <text:p>N=512 distribution (Strong scalability)</text:p>
         </chart:title>
-        <chart:legend chart:legend-position="end" svg:x="13.324cm" svg:y="3.954cm" style:legend-expansion="high" chart:style-name="ch3"/>
-        <chart:plot-area chart:style-name="ch4" table:cell-range-address="Sheet1.H33:Sheet1.H39 Sheet1.C1:Sheet1.D1 Sheet1.E33:Sheet1.F39" chart:data-source-has-labels="both" svg:x="1.331cm" svg:y="1.275cm" svg:width="11.673cm" svg:height="6.569cm">
-          <chart:coordinate-region svg:x="1.952cm" svg:y="1.475cm" svg:width="10.865cm" svg:height="5.722cm"/>
+        <chart:legend chart:legend-position="end" svg:x="10.36cm" svg:y="3.456cm" style:legend-expansion="high" chart:style-name="ch3"/>
+        <chart:plot-area chart:style-name="ch4" table:cell-range-address="Sheet1.H33:Sheet1.H39 Sheet1.E32:Sheet1.F47" chart:data-source-has-labels="both" svg:x="1.331cm" svg:y="1.275cm" svg:width="8.709cm" svg:height="6.569cm">
+          <chart:coordinate-region svg:x="1.952cm" svg:y="1.475cm" svg:width="7.901cm" svg:height="5.722cm"/>
           <chart:axis chart:dimension="x" chart:name="primary-x" chart:style-name="ch5" chartooo:axis-type="auto">
             <chartooo:date-scale/>
-            <chart:title svg:x="5.774cm" svg:y="8.024cm" chart:style-name="ch6">
+            <chart:title svg:x="4.292cm" svg:y="8.024cm" chart:style-name="ch6">
               <text:p>Number of threads</text:p>
             </chart:title>
             <chart:categories table:cell-range-address="Sheet1.H33:Sheet1.H39"/>
@@ -98,21 +113,27 @@
             </chart:title>
             <chart:grid chart:style-name="ch8" chart:class="major"/>
           </chart:axis>
-          <chart:series chart:style-name="ch9" chart:values-cell-range-address="Sheet1.E33:Sheet1.E39" chart:label-cell-address="Sheet1.C1:Sheet1.C1" chart:class="chart:line">
+          <chart:series chart:style-name="ch9" chart:values-cell-range-address="Sheet1.E33:Sheet1.E39" chart:label-cell-address="Sheet1.E32:Sheet1.E32" chart:class="chart:line">
             <chart:data-point chart:repeated="7"/>
           </chart:series>
-          <chart:series chart:style-name="ch10" chart:values-cell-range-address="Sheet1.F33:Sheet1.F39" chart:label-cell-address="Sheet1.D1:Sheet1.D1" chart:class="chart:line">
+          <chart:series chart:style-name="ch10" chart:values-cell-range-address="Sheet1.E41:Sheet1.E47" chart:label-cell-address="Sheet1.E40:Sheet1.E40" chart:class="chart:line">
             <chart:data-point chart:repeated="7"/>
           </chart:series>
-          <chart:wall chart:style-name="ch11"/>
-          <chart:floor chart:style-name="ch12"/>
+          <chart:series chart:style-name="ch11" chart:values-cell-range-address="Sheet1.F33:Sheet1.F39" chart:label-cell-address="Sheet1.F32:Sheet1.F32" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:series chart:style-name="ch12" chart:values-cell-range-address="Sheet1.F41:Sheet1.F47" chart:label-cell-address="Sheet1.F40:Sheet1.F40" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:wall chart:style-name="ch13"/>
+          <chart:floor chart:style-name="ch14"/>
         </chart:plot-area>
         <table:table table:name="local-table">
           <table:table-header-columns>
             <table:table-column/>
           </table:table-header-columns>
           <table:table-columns>
-            <table:table-column table:number-columns-repeated="2"/>
+            <table:table-column table:number-columns-repeated="4"/>
           </table:table-columns>
           <table:table-header-rows>
             <table:table-row>
@@ -120,15 +141,27 @@
                 <text:p/>
               </table:table-cell>
               <table:table-cell office:value-type="string">
-                <text:p>Static</text:p>
-                <draw:g>
-                  <svg:desc>Sheet1.C1:Sheet1.C1</svg:desc>
+                <text:p>Static min=0 max=1000</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E32:Sheet1.E32</svg:desc>
                 </draw:g>
               </table:table-cell>
               <table:table-cell office:value-type="string">
-                <text:p>Dynamic</text:p>
-                <draw:g>
-                  <svg:desc>Sheet1.D1:Sheet1.D1</svg:desc>
+                <text:p>Static min=500 max=500</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E40:Sheet1.E40</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Dynamic min=0 max=1000</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F32:Sheet1.F32</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Dynamic min=500 max=500</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F40:Sheet1.F40</svg:desc>
                 </draw:g>
               </table:table-cell>
             </table:table-row>
@@ -147,10 +180,22 @@
                   <svg:desc>Sheet1.E33:Sheet1.E39</svg:desc>
                 </draw:g>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="0.999951275664021">
+                <text:p>0.999951275664021</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E41:Sheet1.E47</svg:desc>
+                </draw:g>
+              </table:table-cell>
               <table:table-cell office:value-type="float" office:value="1.0000137230057">
                 <text:p>1.0000137230057</text:p>
                 <draw:g>
                   <svg:desc>Sheet1.F33:Sheet1.F39</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="0.999908645764818">
+                <text:p>0.999908645764818</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F41:Sheet1.F47</svg:desc>
                 </draw:g>
               </table:table-cell>
             </table:table-row>
@@ -161,8 +206,14 @@
               <table:table-cell office:value-type="float" office:value="1.95114419335261">
                 <text:p>1.95114419335261</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.99576367763836">
+                <text:p>1.99576367763836</text:p>
+              </table:table-cell>
               <table:table-cell office:value-type="float" office:value="1.99538152610442">
                 <text:p>1.99538152610442</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.99561812673399">
+                <text:p>1.99561812673399</text:p>
               </table:table-cell>
             </table:table-row>
             <table:table-row>
@@ -172,8 +223,14 @@
               <table:table-cell office:value-type="float" office:value="3.7364804813017">
                 <text:p>3.7364804813017</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="3.97585634890845">
+                <text:p>3.97585634890845</text:p>
+              </table:table-cell>
               <table:table-cell office:value-type="float" office:value="3.96348604891492">
                 <text:p>3.96348604891492</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="3.9749900129529">
+                <text:p>3.9749900129529</text:p>
               </table:table-cell>
             </table:table-row>
             <table:table-row>
@@ -183,8 +240,14 @@
               <table:table-cell office:value-type="float" office:value="7.02949454761379">
                 <text:p>7.02949454761379</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="7.88852919802284">
+                <text:p>7.88852919802284</text:p>
+              </table:table-cell>
               <table:table-cell office:value-type="float" office:value="7.80493900327387">
                 <text:p>7.80493900327387</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="7.88784700994623">
+                <text:p>7.88784700994623</text:p>
               </table:table-cell>
             </table:table-row>
             <table:table-row>
@@ -194,8 +257,14 @@
               <table:table-cell office:value-type="float" office:value="12.8636070319687">
                 <text:p>12.8636070319687</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="15.5213537850677">
+                <text:p>15.5213537850677</text:p>
+              </table:table-cell>
               <table:table-cell office:value-type="float" office:value="15.0952542068594">
                 <text:p>15.0952542068594</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="15.5215372070763">
+                <text:p>15.5215372070763</text:p>
               </table:table-cell>
             </table:table-row>
             <table:table-row>
@@ -205,8 +274,14 @@
               <table:table-cell office:value-type="float" office:value="22.441129170231">
                 <text:p>22.441129170231</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="29.9727530384698">
+                <text:p>29.9727530384698</text:p>
+              </table:table-cell>
               <table:table-cell office:value-type="float" office:value="28.1558216311128">
                 <text:p>28.1558216311128</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="30.0414444251301">
+                <text:p>30.0414444251301</text:p>
               </table:table-cell>
             </table:table-row>
             <table:table-row>
@@ -216,8 +291,14 @@
               <table:table-cell office:value-type="float" office:value="26.58836884033">
                 <text:p>26.58836884033</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="36.5716258659479">
+                <text:p>36.5716258659479</text:p>
+              </table:table-cell>
               <table:table-cell office:value-type="float" office:value="34.001887144605">
                 <text:p>34.001887144605</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="36.9055954862965">
+                <text:p>36.9055954862965</text:p>
               </table:table-cell>
             </table:table-row>
           </table:table-rows>
@@ -289,25 +370,35 @@
       <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#ff420e" draw:fill-color="#ff420e"/>
       <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
     </style:style>
-    <style:style style:name="ch11" style:family="chart">
+    <style:style style:name="ch11" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="arrow-down" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#ffd320" draw:fill-color="#ffd320"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch12" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="arrow-up" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#579d1c" draw:fill-color="#579d1c"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch13" style:family="chart">
       <style:graphic-properties draw:stroke="solid" svg:stroke-color="#b3b3b3" draw:fill="none" draw:fill-color="#e6e6e6"/>
     </style:style>
-    <style:style style:name="ch12" style:family="chart">
+    <style:style style:name="ch14" style:family="chart">
       <style:graphic-properties svg:stroke-color="#b3b3b3" draw:fill-color="#cccccc"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
     <office:chart>
-      <chart:chart svg:width="15.989cm" svg:height="9.005cm" xlink:href=".." xlink:type="simple" chart:class="chart:line" chart:column-mapping="0" chart:style-name="ch1">
+      <chart:chart svg:width="15.989cm" svg:height="9.005cm" xlink:href=".." xlink:type="simple" chart:class="chart:line" chart:style-name="ch1">
         <chart:title svg:x="4.987cm" svg:y="0.316cm" chart:style-name="ch2">
           <text:p>Static vs dynamic distribution</text:p>
         </chart:title>
-        <chart:legend chart:legend-position="end" svg:x="13.296cm" svg:y="3.954cm" style:legend-expansion="high" chart:style-name="ch3"/>
-        <chart:plot-area chart:style-name="ch4" table:cell-range-address="Sheet1.H33:Sheet1.H39 Sheet1.C1:Sheet1.D1 Sheet1.C33:Sheet1.D39" chart:data-source-has-labels="both" svg:x="1.33cm" svg:y="1.275cm" svg:width="11.647cm" svg:height="6.569cm">
-          <chart:coordinate-region svg:x="1.951cm" svg:y="1.475cm" svg:width="10.839cm" svg:height="5.722cm"/>
+        <chart:legend chart:legend-position="end" svg:x="10.332cm" svg:y="3.456cm" style:legend-expansion="high" chart:style-name="ch3"/>
+        <chart:plot-area chart:style-name="ch4" table:cell-range-address="Sheet1.H33:Sheet1.H39 Sheet1.E32:Sheet1.F32 Sheet1.C33:Sheet1.D39 Sheet1.E40:Sheet1.F40 Sheet1.C41:Sheet1.D47" chart:data-source-has-labels="both" svg:x="1.33cm" svg:y="1.275cm" svg:width="8.683cm" svg:height="6.569cm">
+          <chart:coordinate-region svg:x="1.951cm" svg:y="1.475cm" svg:width="7.875cm" svg:height="5.722cm"/>
           <chart:axis chart:dimension="x" chart:name="primary-x" chart:style-name="ch5" chartooo:axis-type="auto">
             <chartooo:date-scale/>
-            <chart:title svg:x="5.76cm" svg:y="8.024cm" chart:style-name="ch6">
+            <chart:title svg:x="4.278cm" svg:y="8.024cm" chart:style-name="ch6">
               <text:p>Number of threads</text:p>
             </chart:title>
             <chart:categories table:cell-range-address="Sheet1.H33:Sheet1.H39"/>
@@ -318,21 +409,27 @@
             </chart:title>
             <chart:grid chart:style-name="ch8" chart:class="major"/>
           </chart:axis>
-          <chart:series chart:style-name="ch9" chart:values-cell-range-address="Sheet1.C33:Sheet1.C39" chart:label-cell-address="Sheet1.C1:Sheet1.C1" chart:class="chart:line">
+          <chart:series chart:style-name="ch9" chart:values-cell-range-address="Sheet1.C33:Sheet1.C39" chart:label-cell-address="Sheet1.E32:Sheet1.E32" chart:class="chart:line">
             <chart:data-point chart:repeated="7"/>
           </chart:series>
-          <chart:series chart:style-name="ch10" chart:values-cell-range-address="Sheet1.D33:Sheet1.D39" chart:label-cell-address="Sheet1.D1:Sheet1.D1" chart:class="chart:line">
+          <chart:series chart:style-name="ch10" chart:values-cell-range-address="Sheet1.D33:Sheet1.D39" chart:label-cell-address="Sheet1.F32:Sheet1.F32" chart:class="chart:line">
             <chart:data-point chart:repeated="7"/>
           </chart:series>
-          <chart:wall chart:style-name="ch11"/>
-          <chart:floor chart:style-name="ch12"/>
+          <chart:series chart:style-name="ch11" chart:values-cell-range-address="Sheet1.C41:Sheet1.C47" chart:label-cell-address="Sheet1.E40:Sheet1.E40" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:series chart:style-name="ch12" chart:values-cell-range-address="Sheet1.D41:Sheet1.D47" chart:label-cell-address="Sheet1.F40:Sheet1.F40" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:wall chart:style-name="ch13"/>
+          <chart:floor chart:style-name="ch14"/>
         </chart:plot-area>
         <table:table table:name="local-table">
           <table:table-header-columns>
             <table:table-column/>
           </table:table-header-columns>
           <table:table-columns>
-            <table:table-column table:number-columns-repeated="2"/>
+            <table:table-column table:number-columns-repeated="4"/>
           </table:table-columns>
           <table:table-header-rows>
             <table:table-row>
@@ -340,15 +437,27 @@
                 <text:p/>
               </table:table-cell>
               <table:table-cell office:value-type="string">
-                <text:p>Static</text:p>
-                <draw:g>
-                  <svg:desc>Sheet1.C1:Sheet1.C1</svg:desc>
+                <text:p>Static min=0 max=1000</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E32:Sheet1.E32</svg:desc>
                 </draw:g>
               </table:table-cell>
               <table:table-cell office:value-type="string">
-                <text:p>Dynamic</text:p>
-                <draw:g>
-                  <svg:desc>Sheet1.D1:Sheet1.D1</svg:desc>
+                <text:p>Dynamic min=0 max=1000</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F32:Sheet1.F32</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Static min=500 max=500</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E40:Sheet1.E40</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Dynamic min=500 max=500</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F40:Sheet1.F40</svg:desc>
                 </draw:g>
               </table:table-cell>
             </table:table-row>
@@ -373,6 +482,18 @@
                   <svg:desc>Sheet1.D33:Sheet1.D39</svg:desc>
                 </draw:g>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="65.6756">
+                <text:p>65.6756</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.C41:Sheet1.C47</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="65.6784">
+                <text:p>65.6784</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.D41:Sheet1.D47</svg:desc>
+                </draw:g>
+              </table:table-cell>
             </table:table-row>
             <table:table-row>
               <table:table-cell office:value-type="float" office:value="2">
@@ -384,6 +505,12 @@
               <table:table-cell office:value-type="float" office:value="32.868">
                 <text:p>32.868</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="32.9059">
+                <text:p>32.9059</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="32.9083">
+                <text:p>32.9083</text:p>
+              </table:table-cell>
             </table:table-row>
             <table:table-row>
               <table:table-cell office:value-type="float" office:value="4">
@@ -395,6 +522,12 @@
               <table:table-cell office:value-type="float" office:value="16.5471">
                 <text:p>16.5471</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="16.5178">
+                <text:p>16.5178</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="16.5214">
+                <text:p>16.5214</text:p>
+              </table:table-cell>
             </table:table-row>
             <table:table-row>
               <table:table-cell office:value-type="float" office:value="8">
@@ -406,6 +539,12 @@
               <table:table-cell office:value-type="float" office:value="8.40291">
                 <text:p>8.40291</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="8.32505">
+                <text:p>8.32505</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="8.32577">
+                <text:p>8.32577</text:p>
+              </table:table-cell>
             </table:table-row>
             <table:table-row>
               <table:table-cell office:value-type="float" office:value="16">
@@ -417,6 +556,12 @@
               <table:table-cell office:value-type="float" office:value="4.34469">
                 <text:p>4.34469</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="4.2311">
+                <text:p>4.2311</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="4.23105">
+                <text:p>4.23105</text:p>
+              </table:table-cell>
             </table:table-row>
             <table:table-row>
               <table:table-cell office:value-type="float" office:value="32">
@@ -428,6 +573,12 @@
               <table:table-cell office:value-type="float" office:value="2.32933">
                 <text:p>2.32933</text:p>
               </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="2.19107">
+                <text:p>2.19107</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="2.18606">
+                <text:p>2.18606</text:p>
+              </table:table-cell>
             </table:table-row>
             <table:table-row>
               <table:table-cell office:value-type="float" office:value="40">
@@ -438,6 +589,12 @@
               </table:table-cell>
               <table:table-cell office:value-type="float" office:value="1.92884">
                 <text:p>1.92884</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.79572">
+                <text:p>1.79572</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.77947">
+                <text:p>1.77947</text:p>
               </table:table-cell>
             </table:table-row>
           </table:table-rows>
@@ -462,6 +619,302 @@
 </office:document-styles>
 </file>
 
+<file path=Object 3/content.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-content xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:rpt="http://openoffice.org/2005/report" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.3">
+  <office:automatic-styles>
+    <number:number-style style:name="N0">
+      <number:number number:min-integer-digits="1"/>
+    </number:number-style>
+    <style:style style:name="ch1" style:family="chart">
+      <style:graphic-properties draw:stroke="none"/>
+    </style:style>
+    <style:style style:name="ch2" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="0"/>
+      <style:text-properties fo:font-size="13pt" style:font-size-asian="13pt" style:font-size-complex="13pt"/>
+    </style:style>
+    <style:style style:name="ch3" style:family="chart">
+      <style:chart-properties chart:auto-position="true"/>
+      <style:graphic-properties draw:stroke="none" svg:stroke-color="#b3b3b3" draw:fill="none" draw:fill-color="#e6e6e6"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch4" style:family="chart">
+      <style:chart-properties chart:symbol-type="automatic" chart:include-hidden-cells="false" chart:auto-position="true" chart:auto-size="true" chart:treat-empty-cells="leave-gap" chart:right-angled-axes="true"/>
+    </style:style>
+    <style:style style:name="ch5" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:display-label="true" chart:logarithmic="false" chart:reverse-direction="false" text:line-break="false" loext:try-staggering-first="false" chart:link-data-style-to-source="true" chart:axis-position="0"/>
+      <style:graphic-properties svg:stroke-color="#b3b3b3"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch6" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="0"/>
+      <style:text-properties fo:font-size="9pt" style:font-size-asian="9pt" style:font-size-complex="9pt"/>
+    </style:style>
+    <style:style style:name="ch7" style:family="chart">
+      <style:chart-properties chart:auto-position="true" style:rotation-angle="90"/>
+      <style:text-properties fo:font-size="9pt" style:font-size-asian="9pt" style:font-size-complex="9pt"/>
+    </style:style>
+    <style:style style:name="ch8" style:family="chart">
+      <style:graphic-properties svg:stroke-color="#b3b3b3"/>
+    </style:style>
+    <style:style style:name="ch9" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="square" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#004586" draw:fill-color="#004586"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch10" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="diamond" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#ff420e" draw:fill-color="#ff420e"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch11" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="arrow-down" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#ffd320" draw:fill-color="#ffd320"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch12" style:family="chart" style:data-style-name="N0">
+      <style:chart-properties chart:symbol-type="named-symbol" chart:symbol-name="arrow-up" chart:symbol-width="0.25cm" chart:symbol-height="0.25cm" chart:link-data-style-to-source="true"/>
+      <style:graphic-properties svg:stroke-width="0.08cm" svg:stroke-color="#579d1c" draw:fill-color="#579d1c"/>
+      <style:text-properties fo:font-size="10pt" style:font-size-asian="10pt" style:font-size-complex="10pt"/>
+    </style:style>
+    <style:style style:name="ch13" style:family="chart">
+      <style:graphic-properties draw:stroke="solid" svg:stroke-color="#b3b3b3" draw:fill="none" draw:fill-color="#e6e6e6"/>
+    </style:style>
+    <style:style style:name="ch14" style:family="chart">
+      <style:graphic-properties svg:stroke-color="#b3b3b3" draw:fill-color="#cccccc"/>
+    </style:style>
+  </office:automatic-styles>
+  <office:body>
+    <office:chart>
+      <chart:chart svg:width="16.017cm" svg:height="9.005cm" xlink:href=".." xlink:type="simple" chart:class="chart:line" chart:style-name="ch1">
+        <chart:title svg:x="4.273cm" svg:y="0.316cm" chart:style-name="ch2">
+          <text:p>N=512 distribution (Weak scalability)</text:p>
+        </chart:title>
+        <chart:legend chart:legend-position="end" svg:x="10.36cm" svg:y="3.456cm" style:legend-expansion="high" chart:style-name="ch3"/>
+        <chart:plot-area chart:style-name="ch4" table:cell-range-address="Sheet1.H49:Sheet1.H55 Sheet1.E48:Sheet1.F63" chart:data-source-has-labels="both" svg:x="1.331cm" svg:y="1.275cm" svg:width="8.709cm" svg:height="6.569cm">
+          <chart:coordinate-region svg:x="1.952cm" svg:y="1.475cm" svg:width="7.901cm" svg:height="5.722cm"/>
+          <chart:axis chart:dimension="x" chart:name="primary-x" chart:style-name="ch5" chartooo:axis-type="auto">
+            <chartooo:date-scale/>
+            <chart:title svg:x="4.292cm" svg:y="8.024cm" chart:style-name="ch6">
+              <text:p>Number of threads</text:p>
+            </chart:title>
+            <chart:categories table:cell-range-address="Sheet1.H49:Sheet1.H55"/>
+          </chart:axis>
+          <chart:axis chart:dimension="y" chart:name="primary-y" chart:style-name="ch5">
+            <chart:title svg:x="0.451cm" svg:y="5.278cm" chart:style-name="ch7">
+              <text:p>Speedup</text:p>
+            </chart:title>
+            <chart:grid chart:style-name="ch8" chart:class="major"/>
+          </chart:axis>
+          <chart:series chart:style-name="ch9" chart:values-cell-range-address="Sheet1.E49:Sheet1.E55" chart:label-cell-address="Sheet1.E48:Sheet1.E48" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:series chart:style-name="ch10" chart:values-cell-range-address="Sheet1.F49:Sheet1.F55" chart:label-cell-address="Sheet1.F48:Sheet1.F48" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:series chart:style-name="ch11" chart:values-cell-range-address="Sheet1.E57:Sheet1.E63" chart:label-cell-address="Sheet1.E56:Sheet1.E56" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:series chart:style-name="ch12" chart:values-cell-range-address="Sheet1.F57:Sheet1.F63" chart:label-cell-address="Sheet1.F56:Sheet1.F56" chart:class="chart:line">
+            <chart:data-point chart:repeated="7"/>
+          </chart:series>
+          <chart:wall chart:style-name="ch13"/>
+          <chart:floor chart:style-name="ch14"/>
+        </chart:plot-area>
+        <table:table table:name="local-table">
+          <table:table-header-columns>
+            <table:table-column/>
+          </table:table-header-columns>
+          <table:table-columns>
+            <table:table-column table:number-columns-repeated="4"/>
+          </table:table-columns>
+          <table:table-header-rows>
+            <table:table-row>
+              <table:table-cell>
+                <text:p/>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Static min=0 max=1000</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E48:Sheet1.E48</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Dynamic min=0 max=1000</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F48:Sheet1.F48</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Static min=500 max=500</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E56:Sheet1.E56</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="string">
+                <text:p>Dynamic min=500 max=500</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F56:Sheet1.F56</svg:desc>
+                </draw:g>
+              </table:table-cell>
+            </table:table-row>
+          </table:table-header-rows>
+          <table:table-rows>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="1">
+                <text:p>1</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.H49:Sheet1.H55</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="0.978610207324455">
+                <text:p>0.978610207324455</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E49:Sheet1.E55</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="0.997387637064707">
+                <text:p>0.997387637064707</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F49:Sheet1.F55</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="0.975100610433153">
+                <text:p>0.975100610433153</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.E57:Sheet1.E63</svg:desc>
+                </draw:g>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="0.997705608512525">
+                <text:p>0.997705608512525</text:p>
+                <draw:g>
+                  <svg:desc>Sheet1.F57:Sheet1.F63</svg:desc>
+                </draw:g>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="2">
+                <text:p>2</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.79773467084579">
+                <text:p>1.79773467084579</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.86605393663161">
+                <text:p>1.86605393663161</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.85560012005129">
+                <text:p>1.85560012005129</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="1.88064563406143">
+                <text:p>1.88064563406143</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="4">
+                <text:p>4</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="3.01865160307001">
+                <text:p>3.01865160307001</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="3.48172984505678">
+                <text:p>3.48172984505678</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="3.62869621623999">
+                <text:p>3.62869621623999</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="3.65540203787795">
+                <text:p>3.65540203787795</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="8">
+                <text:p>8</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="5.59491474271918">
+                <text:p>5.59491474271918</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="6.67320164810089">
+                <text:p>6.67320164810089</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="7.16357775987107">
+                <text:p>7.16357775987107</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="7.18475640503146">
+                <text:p>7.18475640503146</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="16">
+                <text:p>16</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="16.2317338421553">
+                <text:p>16.2317338421553</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="20.4178066631767">
+                <text:p>20.4178066631767</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="14.211154980775">
+                <text:p>14.211154980775</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="14.2473487502114">
+                <text:p>14.2473487502114</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="32">
+                <text:p>32</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="19.8880335561647">
+                <text:p>19.8880335561647</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="25.1597016359977">
+                <text:p>25.1597016359977</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="28.2040950692513">
+                <text:p>28.2040950692513</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="28.2996827625123">
+                <text:p>28.2996827625123</text:p>
+              </table:table-cell>
+            </table:table-row>
+            <table:table-row>
+              <table:table-cell office:value-type="float" office:value="40">
+                <text:p>40</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="26.58836884033">
+                <text:p>26.58836884033</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="34.001887144605">
+                <text:p>34.001887144605</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="36.5716258659479">
+                <text:p>36.5716258659479</text:p>
+              </table:table-cell>
+              <table:table-cell office:value-type="float" office:value="36.9055954862965">
+                <text:p>36.9055954862965</text:p>
+              </table:table-cell>
+            </table:table-row>
+          </table:table-rows>
+        </table:table>
+      </chart:chart>
+    </office:chart>
+  </office:body>
+</office:document-content>
+</file>
+
+<file path=Object 3/meta.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
+  <office:meta>
+    <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
+  </office:meta>
+</office:document-meta>
+</file>
+
+<file path=Object 3/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<office:document-styles xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:rpt="http://openoffice.org/2005/report" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" office:version="1.3">
+  <office:styles/>
+</office:document-styles>
+</file>
+
 <file path=content.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-content xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:rpt="http://openoffice.org/2005/report" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.3">
   <office:scripts/>
@@ -516,16 +969,22 @@
       <table:table table:name="Sheet1" table:style-name="ta1">
         <table:shapes>
           <draw:frame draw:z-index="0" draw:style-name="gr1" draw:text-style-name="P1" svg:width="16.016cm" svg:height="9.004cm" svg:x="31.373cm" svg:y="0.426cm">
-            <draw:object draw:notify-on-update-of-ranges="Sheet1.H33:Sheet1.H39 Sheet1.C1:Sheet1.C1 Sheet1.E33:Sheet1.E39 Sheet1.D1:Sheet1.D1 Sheet1.F33:Sheet1.F39" xlink:href="./Object 1" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+            <draw:object draw:notify-on-update-of-ranges="Sheet1.H33:Sheet1.H39 Sheet1.E32:Sheet1.E32 Sheet1.E33:Sheet1.E39 Sheet1.E40:Sheet1.E40 Sheet1.E41:Sheet1.E47 Sheet1.F32:Sheet1.F32 Sheet1.F33:Sheet1.F39 Sheet1.F40:Sheet1.F40 Sheet1.F41:Sheet1.F47" xlink:href="./Object 1" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
               <loext:p/>
             </draw:object>
             <draw:image xlink:href="./ObjectReplacements/Object 1" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad"/>
           </draw:frame>
           <draw:frame draw:z-index="1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="15.988cm" svg:height="9.004cm" svg:x="31.098cm" svg:y="10.386cm">
-            <draw:object draw:notify-on-update-of-ranges="Sheet1.H33:Sheet1.H39 Sheet1.C1:Sheet1.C1 Sheet1.C33:Sheet1.C39 Sheet1.D1:Sheet1.D1 Sheet1.D33:Sheet1.D39" xlink:href="./Object 2" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+            <draw:object draw:notify-on-update-of-ranges="Sheet1.H33:Sheet1.H39 Sheet1.E32:Sheet1.E32 Sheet1.C33:Sheet1.C39 Sheet1.F32:Sheet1.F32 Sheet1.D33:Sheet1.D39 Sheet1.E40:Sheet1.E40 Sheet1.C41:Sheet1.C47 Sheet1.F40:Sheet1.F40 Sheet1.D41:Sheet1.D47" xlink:href="./Object 2" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
               <loext:p/>
             </draw:object>
             <draw:image xlink:href="./ObjectReplacements/Object 2" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad"/>
+          </draw:frame>
+          <draw:frame draw:z-index="2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="16.016cm" svg:height="9.004cm" svg:x="31.345cm" svg:y="20.001cm">
+            <draw:object draw:notify-on-update-of-ranges="Sheet1.H49:Sheet1.H55 Sheet1.E48:Sheet1.E48 Sheet1.E49:Sheet1.E55 Sheet1.F48:Sheet1.F48 Sheet1.F49:Sheet1.F55 Sheet1.E56:Sheet1.E56 Sheet1.E57:Sheet1.E63 Sheet1.F56:Sheet1.F56 Sheet1.F57:Sheet1.F63" xlink:href="./Object 3" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+              <loext:p/>
+            </draw:object>
+            <draw:image xlink:href="./ObjectReplacements/Object 3" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad"/>
           </draw:frame>
         </table:shapes>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
@@ -1070,7 +1529,14 @@
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Static min=0 max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Dynamic min=0 max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -1229,20 +1695,33 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Static min=500 max=500</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Dynamic min=500 max=500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=512,Thread=1, Min=500, max=500</text:p>
           </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell/>
-          <table:table-cell table:formula="of:=[.B41]/[.C41]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B41]/[.D41]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
+          <table:table-cell office:value-type="float" office:value="65.6724" calcext:value-type="float">
+            <text:p>65,6724</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="65.6756" calcext:value-type="float">
+            <text:p>65,6756</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="65.6784" calcext:value-type="float">
+            <text:p>65,6784</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.C41]" office:value-type="float" office:value="0.999951275664021" calcext:value-type="float">
+            <text:p>0,999951275664021</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D41]" office:value-type="float" office:value="0.999908645764818" calcext:value-type="float">
+            <text:p>0,999908645764818</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
@@ -1250,12 +1729,18 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=512,Thread=2, Min=500, max=500</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:formula="of:=[.B41]/[.C42]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B41]/[.D42]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="32.9059" calcext:value-type="float">
+            <text:p>32,9059</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="32.9083" calcext:value-type="float">
+            <text:p>32,9083</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.C42]" office:value-type="float" office:value="1.99576367763836" calcext:value-type="float">
+            <text:p>1,99576367763836</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D42]" office:value-type="float" office:value="1.99561812673399" calcext:value-type="float">
+            <text:p>1,99561812673399</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
@@ -1263,12 +1748,18 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=512,Thread=4, Min=500, max=500</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:formula="of:=[.B41]/[.C43]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B41]/[.D43]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="16.5178" calcext:value-type="float">
+            <text:p>16,5178</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="16.5214" calcext:value-type="float">
+            <text:p>16,5214</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.C43]" office:value-type="float" office:value="3.97585634890845" calcext:value-type="float">
+            <text:p>3,97585634890845</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D43]" office:value-type="float" office:value="3.9749900129529" calcext:value-type="float">
+            <text:p>3,9749900129529</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
@@ -1276,12 +1767,18 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=512,Thread=8, Min=500, max=500</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:formula="of:=[.B41]/[.C44]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B41]/[.D44]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="8.32505" calcext:value-type="float">
+            <text:p>8,32505</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8.32577" calcext:value-type="float">
+            <text:p>8,32577</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.C44]" office:value-type="float" office:value="7.88852919802284" calcext:value-type="float">
+            <text:p>7,88852919802284</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D44]" office:value-type="float" office:value="7.88784700994623" calcext:value-type="float">
+            <text:p>7,88784700994623</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
@@ -1289,12 +1786,18 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=512,Thread=16, Min=500, max=500</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:formula="of:=[.B41]/[.C45]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B41]/[.D45]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="4.2311" calcext:value-type="float">
+            <text:p>4,2311</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4.23105" calcext:value-type="float">
+            <text:p>4,23105</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.C45]" office:value-type="float" office:value="15.5213537850677" calcext:value-type="float">
+            <text:p>15,5213537850677</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D45]" office:value-type="float" office:value="15.5215372070763" calcext:value-type="float">
+            <text:p>15,5215372070763</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
@@ -1302,12 +1805,18 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=512,Thread=32, Min=500, max=500</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:formula="of:=[.B41]/[.C46]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B41]/[.D46]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="2.19107" calcext:value-type="float">
+            <text:p>2,19107</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2.18606" calcext:value-type="float">
+            <text:p>2,18606</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.C46]" office:value-type="float" office:value="29.9727530384698" calcext:value-type="float">
+            <text:p>29,9727530384698</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D46]" office:value-type="float" office:value="30.0414444251301" calcext:value-type="float">
+            <text:p>30,0414444251301</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
@@ -1315,75 +1824,150 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=512,Thread=40, Min=500, max=500</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:formula="of:=[.B41]/[.C47]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B41]/[.D47]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="8"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=16 Thread=1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0.0743907" calcext:value-type="float">
-            <text:p>0,0743907</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:formula="of:=[.B49]/[.C49]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B49]/[.D49]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>N=32 Thread=2</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:formula="of:=[.B50]/[.C50]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B50]/[.D50]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="1.79572" calcext:value-type="float">
+            <text:p>1,79572</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.77947" calcext:value-type="float">
+            <text:p>1,77947</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.C47]" office:value-type="float" office:value="36.5716258659479" calcext:value-type="float">
+            <text:p>36,5716258659479</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B41]/[.D47]" office:value-type="float" office:value="36.9055954862965" calcext:value-type="float">
+            <text:p>36,9055954862965</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Static min=0 max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Dynamic min=0 max=1000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=8,Thread=1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0206933" calcext:value-type="float">
+            <text:p>0,0206933</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0211456" calcext:value-type="float">
+            <text:p>0,0211456</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default" office:value-type="float" office:value="0.0207475" calcext:value-type="float">
+            <text:p>0,0207475</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B49]/[.C49]" office:value-type="float" office:value="0.978610207324455" calcext:value-type="float">
+            <text:p>0,978610207324455</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B49]/[.D49]" office:value-type="float" office:value="0.997387637064707" calcext:value-type="float">
+            <text:p>0,997387637064707</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=16 Thread=2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0743908" calcext:value-type="float">
+            <text:p>0,0743908</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0413803" calcext:value-type="float">
+            <text:p>0,0413803</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0398653" calcext:value-type="float">
+            <text:p>0,0398653</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B50]/[.C50]" office:value-type="float" office:value="1.79773467084579" calcext:value-type="float">
+            <text:p>1,79773467084579</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B50]/[.D50]" office:value-type="float" office:value="1.86605393663161" calcext:value-type="float">
+            <text:p>1,86605393663161</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=32 Thread=4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.266978" calcext:value-type="float">
+            <text:p>0,266978</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0884428" calcext:value-type="float">
+            <text:p>0,0884428</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0766797" calcext:value-type="float">
+            <text:p>0,0766797</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B51]/[.C51]" office:value-type="float" office:value="3.01865160307001" calcext:value-type="float">
+            <text:p>3,01865160307001</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B51]/[.D51]" office:value-type="float" office:value="3.48172984505678" calcext:value-type="float">
+            <text:p>3,48172984505678</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=64 Thread=8</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1.03834" calcext:value-type="float">
-            <text:p>1,03834</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:formula="of:=[.B51]/[.C51]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B51]/[.D51]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="float" office:value="1.03817" calcext:value-type="float">
+            <text:p>1,03817</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.185556" calcext:value-type="float">
+            <text:p>0,185556</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.155573" calcext:value-type="float">
+            <text:p>0,155573</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B52]/[.C52]" office:value-type="float" office:value="5.59491474271918" calcext:value-type="float">
+            <text:p>5,59491474271918</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B52]/[.D52]" office:value-type="float" office:value="6.67320164810089" calcext:value-type="float">
+            <text:p>6,67320164810089</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>N=128 Thread=16</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:formula="of:=[.B52]/[.C52]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=[.B52]/[.D52]" office:value-type="string" office:string-value="" calcext:value-type="error">
-            <text:p>#DIV/0!</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="float" office:value="4.13432" calcext:value-type="float">
+            <text:p>4,13432</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.254706" calcext:value-type="float">
+            <text:p>0,254706</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.202486" calcext:value-type="float">
+            <text:p>0,202486</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B53]/[.C53]" office:value-type="float" office:value="16.2317338421553" calcext:value-type="float">
+            <text:p>16,2317338421553</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B53]/[.D53]" office:value-type="float" office:value="20.4178066631767" calcext:value-type="float">
+            <text:p>20,4178066631767</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
+            <text:p>16</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -1398,13 +1982,16 @@
           <table:table-cell office:value-type="float" office:value="0.655441" calcext:value-type="float">
             <text:p>0,655441</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B53]/[.C53]" office:value-type="float" office:value="19.8880335561647" calcext:value-type="float">
+          <table:table-cell table:formula="of:=[.B54]/[.C54]" office:value-type="float" office:value="19.8880335561647" calcext:value-type="float">
             <text:p>19,8880335561647</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B53]/[.D53]" office:value-type="float" office:value="25.1597016359977" calcext:value-type="float">
+          <table:table-cell table:formula="of:=[.B54]/[.D54]" office:value-type="float" office:value="25.1597016359977" calcext:value-type="float">
             <text:p>25,1597016359977</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="32" calcext:value-type="float">
+            <text:p>32</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -1419,15 +2006,175 @@
           <table:table-cell office:value-type="float" office:value="1.92884" calcext:value-type="float">
             <text:p>1,92884</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B54]/[.C54]" office:value-type="float" office:value="26.58836884033" calcext:value-type="float">
+          <table:table-cell table:formula="of:=[.B55]/[.C55]" office:value-type="float" office:value="26.58836884033" calcext:value-type="float">
             <text:p>26,58836884033</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=[.B54]/[.D54]" office:value-type="float" office:value="34.001887144605" calcext:value-type="float">
+          <table:table-cell table:formula="of:=[.B55]/[.D55]" office:value-type="float" office:value="34.001887144605" calcext:value-type="float">
             <text:p>34,001887144605</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048521">
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="40" calcext:value-type="float">
+            <text:p>40</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Static min=500 max=500</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Dynamic min=500 max=500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=8,Thread=1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0180026" calcext:value-type="float">
+            <text:p>0,0180026</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0184623" calcext:value-type="float">
+            <text:p>0,0184623</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.018044" calcext:value-type="float">
+            <text:p>0,018044</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B57]/[.C57]" office:value-type="float" office:value="0.975100610433153" calcext:value-type="float">
+            <text:p>0,975100610433153</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B57]/[.D57]" office:value-type="float" office:value="0.997705608512525" calcext:value-type="float">
+            <text:p>0,997705608512525</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=16 Thread=2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0680096" calcext:value-type="float">
+            <text:p>0,0680096</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.036651" calcext:value-type="float">
+            <text:p>0,036651</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0361629" calcext:value-type="float">
+            <text:p>0,0361629</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B58]/[.C58]" office:value-type="float" office:value="1.85560012005129" calcext:value-type="float">
+            <text:p>1,85560012005129</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B58]/[.D58]" office:value-type="float" office:value="1.88064563406143" calcext:value-type="float">
+            <text:p>1,88064563406143</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=32 Thread=4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.264037" calcext:value-type="float">
+            <text:p>0,264037</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0727636" calcext:value-type="float">
+            <text:p>0,0727636</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.072232" calcext:value-type="float">
+            <text:p>0,072232</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B59]/[.C59]" office:value-type="float" office:value="3.62869621623999" calcext:value-type="float">
+            <text:p>3,62869621623999</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B59]/[.D59]" office:value-type="float" office:value="3.65540203787795" calcext:value-type="float">
+            <text:p>3,65540203787795</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=64 Thread=8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.04013" calcext:value-type="float">
+            <text:p>1,04013</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.145197" calcext:value-type="float">
+            <text:p>0,145197</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.144769" calcext:value-type="float">
+            <text:p>0,144769</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B60]/[.C60]" office:value-type="float" office:value="7.16357775987107" calcext:value-type="float">
+            <text:p>7,16357775987107</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B60]/[.D60]" office:value-type="float" office:value="7.18475640503146" calcext:value-type="float">
+            <text:p>7,18475640503146</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=128 Thread=16</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4.12844" calcext:value-type="float">
+            <text:p>4,12844</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.290507" calcext:value-type="float">
+            <text:p>0,290507</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.289769" calcext:value-type="float">
+            <text:p>0,289769</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B61]/[.C61]" office:value-type="float" office:value="14.211154980775" calcext:value-type="float">
+            <text:p>14,211154980775</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B61]/[.D61]" office:value-type="float" office:value="14.2473487502114" calcext:value-type="float">
+            <text:p>14,2473487502114</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=256 Thread=32</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="16.4497" calcext:value-type="float">
+            <text:p>16,4497</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.583238" calcext:value-type="float">
+            <text:p>0,583238</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.581268" calcext:value-type="float">
+            <text:p>0,581268</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B62]/[.C62]" office:value-type="float" office:value="28.2040950692513" calcext:value-type="float">
+            <text:p>28,2040950692513</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B62]/[.D62]" office:value-type="float" office:value="28.2996827625123" calcext:value-type="float">
+            <text:p>28,2996827625123</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>N=512 Thread=40</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="65.6724" calcext:value-type="float">
+            <text:p>65,6724</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.79572" calcext:value-type="float">
+            <text:p>1,79572</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1.77947" calcext:value-type="float">
+            <text:p>1,77947</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B63]/[.C63]" office:value-type="float" office:value="36.5716258659479" calcext:value-type="float">
+            <text:p>36,5716258659479</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=[.B63]/[.D63]" office:value-type="float" office:value="36.9055954862965" calcext:value-type="float">
+            <text:p>36,9055954862965</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048512">
           <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -1444,11 +2191,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-04-09T17:52:10.097789529</meta:creation-date>
-    <dc:date>2024-04-17T12:55:57.951547913</dc:date>
-    <meta:editing-duration>PT6H33M37S</meta:editing-duration>
-    <meta:editing-cycles>34</meta:editing-cycles>
+    <dc:date>2024-04-22T10:57:23.618961021</dc:date>
+    <meta:editing-duration>PT9H1M37S</meta:editing-duration>
+    <meta:editing-cycles>53</meta:editing-cycles>
     <meta:generator>LibreOffice/7.6.6.3$Linux_X86_64 LibreOffice_project/60$Build-3</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="230" meta:object-count="2"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="318" meta:object-count="3"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -1460,19 +2207,19 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">48713</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">24384</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">29351</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">51</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">43</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">1</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">20</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">31</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -1484,7 +2231,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">887</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1847</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -1545,7 +2292,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">1gH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleHREYXRhCkR1cGxleDpOb25lAFBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">1gH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleHREYXRhClBhZ2VTaXplOkE0AER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
@@ -1727,9 +2474,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-04-17">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-04-22">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="12:33:39.474546201">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="10:06:28.567970226">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
